--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_23_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_23_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>568863.5448925605</v>
+        <v>650484.7432788543</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14753135.73644865</v>
+        <v>14774421.6115419</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5825114.584093607</v>
+        <v>5819103.813027844</v>
       </c>
     </row>
     <row r="11">
@@ -661,61 +661,61 @@
         <v>49.79500702712463</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.848256208035306</v>
+      </c>
+      <c r="U2" t="n">
         <v>49.79500702712463</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.848256208035304</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>12.84193026251983</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>31.01751192697151</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>49.79500702712463</v>
       </c>
       <c r="X3" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>43.85944218949135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.921385950283683</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>37.57007701068535</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -940,19 +940,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>48.65933999663645</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>52.00521202033443</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>52.00521202033443</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -977,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="D6" t="n">
-        <v>52.00521202033443</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>15.6483642995019</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>52.00521202033443</v>
+        <v>42.89642527627124</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1019,16 +1019,16 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>30.15782644800863</v>
+        <v>21.81101977343823</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>52.00521202033443</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>112.1126601249236</v>
-      </c>
-      <c r="D8" t="n">
-        <v>112.1126601249236</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>15.61164031771685</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>80.15409932856797</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>64.5424590108511</v>
       </c>
     </row>
     <row r="9">
@@ -1214,11 +1214,11 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
         <v>112.1126601249236</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
@@ -1229,13 +1229,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>102.3448132540521</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>16.65323814921966</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1256,25 +1256,25 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>9.256558775821446</v>
       </c>
       <c r="R9" t="n">
-        <v>82.09559288881303</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="U9" t="n">
-        <v>112.1126601249236</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>112.1126601249236</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>99.26011913308272</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>277.7411507770875</v>
+        <v>264.7927740841441</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>264.7927740841441</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>264.7927740841441</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>233.229475413314</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>277.7411507770875</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1442844361238</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>271.2312719454223</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1457,13 +1457,13 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.0207219127059</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>194.7362989372607</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>28.76032638292197</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>58.84549358571299</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>136.6651421410798</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>122.7260842780546</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>20.26172036402141</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>277.7411507770876</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>277.7411507770876</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>264.7927740841441</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>60.28514218019274</v>
       </c>
       <c r="S14" t="n">
-        <v>151.6615189718265</v>
+        <v>152.6826128690998</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>92.9728866326323</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>264.7927740841441</v>
       </c>
       <c r="Y14" t="n">
-        <v>277.7411507770876</v>
+        <v>264.7927740841441</v>
       </c>
     </row>
     <row r="15">
@@ -1685,22 +1685,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>135.9967467772216</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1736,25 +1736,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>147.112829499068</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>194.8329355579188</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>179.5862650175982</v>
       </c>
       <c r="W15" t="n">
-        <v>139.3155481585883</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>136.6651421410798</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>122.7260842780546</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>277.7411507770876</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.683668893987673</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>277.7411507770876</v>
+        <v>264.7927740841441</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>264.7927740841441</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>57.47038454883358</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.0772185026012</v>
+        <v>212.2733715924669</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1442844361238</v>
+        <v>251.1478691870522</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>34.60100871793909</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>155.2889270094764</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1979,13 +1979,13 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8527787661071</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>120.0826419108311</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>136.6651421410798</v>
+        <v>122.7260842780546</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>277.7411507770876</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>92.9728866326323</v>
+        <v>264.7927740841441</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>277.7411507770876</v>
+        <v>264.7927740841441</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>151.6615189718264</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>233.229475413314</v>
       </c>
       <c r="W20" t="n">
-        <v>277.7411507770876</v>
+        <v>264.7927740841441</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2159,19 +2159,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>126.313318677214</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>6.545529963711685</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2213,22 +2213,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>194.7362989372607</v>
+        <v>194.8329355579188</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>122.7260842780546</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>136.66514214108</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0710926941158</v>
+        <v>146.3900624795527</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>54.76083609561068</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2396,28 +2396,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H24" t="n">
-        <v>49.14185495865149</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>137.5750138932992</v>
@@ -2453,19 +2453,19 @@
         <v>192.7632183107638</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>67.88750118291121</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>159.4830798759218</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>185.62795066089</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2560,22 +2560,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>293.4052963760232</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>298.5320769408804</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2648,13 +2648,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>135.5072338470353</v>
+        <v>60.74064927376393</v>
       </c>
       <c r="H27" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>29.67113581408578</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U27" t="n">
         <v>225.8205739680685</v>
@@ -2715,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>31.68046530976816</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>40.20690263795868</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>348.7928585997676</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0710926941158</v>
+        <v>225.3462741787604</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,19 +2870,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>60.74064927376393</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>20.27697994470626</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2924,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>70.95115008124101</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U31" t="n">
-        <v>40.20690263795868</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3046,7 +3046,7 @@
         <v>411.8707348436268</v>
       </c>
       <c r="H32" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>150.6976310633444</v>
       </c>
       <c r="V32" t="n">
-        <v>287.1975305218354</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3107,25 +3107,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>70.94066416452611</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>192.7632183107638</v>
@@ -3167,7 +3167,7 @@
         <v>225.8205739680685</v>
       </c>
       <c r="V33" t="n">
-        <v>2.946989034130602</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -3176,7 +3176,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>32.1984769110835</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>185.62795066089</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>242.2833665606056</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>134.1907930857599</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>152.8488309429334</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -3356,10 +3356,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>106.0588020198891</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3392,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3480,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>215.46262471363</v>
+        <v>220.0133056736529</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3505,19 +3505,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>368.1484862413455</v>
       </c>
       <c r="G38" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>114.6128896186001</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.0710926941158</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,25 +3584,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>15.55307850024869</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.8205739680685</v>
@@ -3644,7 +3644,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>230.7977198434766</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3666,16 +3666,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>180.2959383279805</v>
       </c>
       <c r="U40" t="n">
-        <v>49.01112360269822</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3796,16 +3796,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>150.8482713870142</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>69.58153213348615</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3818,22 +3818,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>82.87849588212961</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>66.91596461221233</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.3678187343026</v>
+        <v>157.1596365253039</v>
       </c>
       <c r="U43" t="n">
-        <v>105.362082240247</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3979,19 +3979,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>22.11281933234815</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>208.0722578696039</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>149.0717009257361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,25 +4058,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4109,10 +4109,10 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>114.6099705295922</v>
       </c>
       <c r="U45" t="n">
-        <v>117.2972414894722</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4124,7 +4124,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.3678187343026</v>
+        <v>71.47349431240767</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>250.7831302631783</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>56.14851292091738</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="C2" t="n">
-        <v>5.850526024831893</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="D2" t="n">
-        <v>5.850526024831893</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="E2" t="n">
-        <v>5.850526024831893</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="F2" t="n">
-        <v>5.850526024831893</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="G2" t="n">
         <v>3.98360056216997</v>
@@ -4360,22 +4360,22 @@
         <v>156.7444867130883</v>
       </c>
       <c r="T2" t="n">
-        <v>156.7444867130883</v>
+        <v>154.8775612504264</v>
       </c>
       <c r="U2" t="n">
-        <v>156.7444867130883</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="V2" t="n">
-        <v>156.7444867130883</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="W2" t="n">
-        <v>156.7444867130883</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="X2" t="n">
-        <v>156.7444867130883</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="Y2" t="n">
-        <v>106.4464998170029</v>
+        <v>54.28158745825545</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.98360056216997</v>
+        <v>67.25323418807346</v>
       </c>
       <c r="C3" t="n">
-        <v>3.98360056216997</v>
+        <v>16.95524729198798</v>
       </c>
       <c r="D3" t="n">
-        <v>3.98360056216997</v>
+        <v>16.95524729198798</v>
       </c>
       <c r="E3" t="n">
-        <v>3.98360056216997</v>
+        <v>16.95524729198798</v>
       </c>
       <c r="F3" t="n">
-        <v>3.98360056216997</v>
+        <v>16.95524729198798</v>
       </c>
       <c r="G3" t="n">
-        <v>3.98360056216997</v>
+        <v>16.95524729198798</v>
       </c>
       <c r="H3" t="n">
-        <v>3.98360056216997</v>
+        <v>16.95524729198798</v>
       </c>
       <c r="I3" t="n">
-        <v>3.98360056216997</v>
+        <v>16.95524729198798</v>
       </c>
       <c r="J3" t="n">
         <v>3.98360056216997</v>
@@ -4418,43 +4418,43 @@
         <v>50.30614171732423</v>
       </c>
       <c r="M3" t="n">
-        <v>99.60319867417761</v>
+        <v>71.84601783796413</v>
       </c>
       <c r="N3" t="n">
-        <v>148.900255631031</v>
+        <v>121.1430747948175</v>
       </c>
       <c r="O3" t="n">
-        <v>198.1973125878844</v>
+        <v>170.4401317516709</v>
       </c>
       <c r="P3" t="n">
         <v>199.1800281084985</v>
       </c>
       <c r="Q3" t="n">
-        <v>199.1800281084985</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="R3" t="n">
-        <v>199.1800281084985</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="S3" t="n">
-        <v>199.1800281084985</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="T3" t="n">
-        <v>199.1800281084985</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="U3" t="n">
-        <v>199.1800281084985</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="V3" t="n">
-        <v>148.882041212413</v>
+        <v>117.551221084159</v>
       </c>
       <c r="W3" t="n">
-        <v>98.58405431632752</v>
+        <v>67.25323418807346</v>
       </c>
       <c r="X3" t="n">
-        <v>48.28606742024204</v>
+        <v>67.25323418807346</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.98360056216997</v>
+        <v>67.25323418807346</v>
       </c>
     </row>
     <row r="4">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11.15171590130724</v>
+        <v>43.82672487700421</v>
       </c>
       <c r="C5" t="n">
-        <v>11.15171590130724</v>
+        <v>43.82672487700421</v>
       </c>
       <c r="D5" t="n">
-        <v>11.15171590130724</v>
+        <v>43.82672487700421</v>
       </c>
       <c r="E5" t="n">
-        <v>11.15171590130724</v>
+        <v>43.82672487700421</v>
       </c>
       <c r="F5" t="n">
-        <v>4.160416961626754</v>
+        <v>43.82672487700421</v>
       </c>
       <c r="G5" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="H5" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="I5" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="J5" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="K5" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="L5" t="n">
-        <v>21.96921792112715</v>
+        <v>42.77891399687743</v>
       </c>
       <c r="M5" t="n">
-        <v>73.45437782125822</v>
+        <v>115.5086717162376</v>
       </c>
       <c r="N5" t="n">
-        <v>124.9395377213893</v>
+        <v>188.2384294355977</v>
       </c>
       <c r="O5" t="n">
-        <v>165.3635987672722</v>
+        <v>249.0477644106464</v>
       </c>
       <c r="P5" t="n">
-        <v>165.3635987672722</v>
+        <v>266.4461240792085</v>
       </c>
       <c r="Q5" t="n">
-        <v>116.2127502858212</v>
+        <v>266.4461240792085</v>
       </c>
       <c r="R5" t="n">
-        <v>63.68223309356424</v>
+        <v>266.4461240792085</v>
       </c>
       <c r="S5" t="n">
-        <v>63.68223309356424</v>
+        <v>266.4461240792085</v>
       </c>
       <c r="T5" t="n">
-        <v>11.15171590130724</v>
+        <v>192.2396576784737</v>
       </c>
       <c r="U5" t="n">
-        <v>11.15171590130724</v>
+        <v>118.033191277739</v>
       </c>
       <c r="V5" t="n">
-        <v>11.15171590130724</v>
+        <v>118.033191277739</v>
       </c>
       <c r="W5" t="n">
-        <v>11.15171590130724</v>
+        <v>118.033191277739</v>
       </c>
       <c r="X5" t="n">
-        <v>11.15171590130724</v>
+        <v>118.033191277739</v>
       </c>
       <c r="Y5" t="n">
-        <v>11.15171590130724</v>
+        <v>118.033191277739</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>125.0278799314962</v>
+        <v>123.4133410409571</v>
       </c>
       <c r="C6" t="n">
-        <v>125.0278799314962</v>
+        <v>49.20687464022228</v>
       </c>
       <c r="D6" t="n">
-        <v>72.49736273923921</v>
+        <v>49.20687464022228</v>
       </c>
       <c r="E6" t="n">
-        <v>72.49736273923921</v>
+        <v>49.20687464022228</v>
       </c>
       <c r="F6" t="n">
-        <v>56.69093415388375</v>
+        <v>49.20687464022228</v>
       </c>
       <c r="G6" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="H6" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="I6" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="J6" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="K6" t="n">
-        <v>5.237056938131228</v>
+        <v>17.40704038112031</v>
       </c>
       <c r="L6" t="n">
-        <v>53.00727340732121</v>
+        <v>79.23293915447337</v>
       </c>
       <c r="M6" t="n">
-        <v>104.4924333074523</v>
+        <v>148.3980915081894</v>
       </c>
       <c r="N6" t="n">
-        <v>155.9775932075834</v>
+        <v>221.1278492275495</v>
       </c>
       <c r="O6" t="n">
-        <v>178.0077694636781</v>
+        <v>293.8576069469096</v>
       </c>
       <c r="P6" t="n">
-        <v>208.0208480813377</v>
+        <v>293.8576069469096</v>
       </c>
       <c r="Q6" t="n">
-        <v>177.5583971237532</v>
+        <v>271.8262738424266</v>
       </c>
       <c r="R6" t="n">
-        <v>177.5583971237532</v>
+        <v>271.8262738424266</v>
       </c>
       <c r="S6" t="n">
-        <v>125.0278799314962</v>
+        <v>271.8262738424266</v>
       </c>
       <c r="T6" t="n">
-        <v>125.0278799314962</v>
+        <v>197.6198074416918</v>
       </c>
       <c r="U6" t="n">
-        <v>125.0278799314962</v>
+        <v>197.6198074416918</v>
       </c>
       <c r="V6" t="n">
-        <v>125.0278799314962</v>
+        <v>197.6198074416918</v>
       </c>
       <c r="W6" t="n">
-        <v>125.0278799314962</v>
+        <v>197.6198074416918</v>
       </c>
       <c r="X6" t="n">
-        <v>125.0278799314962</v>
+        <v>123.4133410409571</v>
       </c>
       <c r="Y6" t="n">
-        <v>125.0278799314962</v>
+        <v>123.4133410409571</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="C7" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="D7" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="E7" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="F7" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="G7" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="H7" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="I7" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="J7" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="K7" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="L7" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="M7" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="N7" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="O7" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="P7" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="R7" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="S7" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="T7" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="U7" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="V7" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="W7" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="X7" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>367.4869038041712</v>
+        <v>254.2417925668746</v>
       </c>
       <c r="C8" t="n">
         <v>254.2417925668746</v>
       </c>
       <c r="D8" t="n">
-        <v>140.996681329578</v>
+        <v>254.2417925668746</v>
       </c>
       <c r="E8" t="n">
         <v>140.996681329578</v>
@@ -4807,13 +4807,13 @@
         <v>8.969012809993888</v>
       </c>
       <c r="K8" t="n">
-        <v>32.11753523687548</v>
+        <v>32.1175352368754</v>
       </c>
       <c r="L8" t="n">
-        <v>97.73708609773405</v>
+        <v>97.73708609773394</v>
       </c>
       <c r="M8" t="n">
-        <v>202.4209174083929</v>
+        <v>202.4209174083927</v>
       </c>
       <c r="N8" t="n">
         <v>313.4124509320673</v>
@@ -4825,28 +4825,28 @@
         <v>448.4506404996944</v>
       </c>
       <c r="Q8" t="n">
-        <v>448.4506404996944</v>
+        <v>432.6813068454349</v>
       </c>
       <c r="R8" t="n">
-        <v>448.4506404996944</v>
+        <v>432.6813068454349</v>
       </c>
       <c r="S8" t="n">
-        <v>448.4506404996944</v>
+        <v>432.6813068454349</v>
       </c>
       <c r="T8" t="n">
-        <v>448.4506404996944</v>
+        <v>432.6813068454349</v>
       </c>
       <c r="U8" t="n">
-        <v>367.4869038041712</v>
+        <v>432.6813068454349</v>
       </c>
       <c r="V8" t="n">
-        <v>367.4869038041712</v>
+        <v>432.6813068454349</v>
       </c>
       <c r="W8" t="n">
-        <v>367.4869038041712</v>
+        <v>432.6813068454349</v>
       </c>
       <c r="X8" t="n">
-        <v>367.4869038041712</v>
+        <v>432.6813068454349</v>
       </c>
       <c r="Y8" t="n">
         <v>367.4869038041712</v>
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>139.0355767232699</v>
+        <v>225.5927232938078</v>
       </c>
       <c r="C9" t="n">
-        <v>25.79046548597334</v>
+        <v>225.5927232938078</v>
       </c>
       <c r="D9" t="n">
-        <v>25.79046548597334</v>
+        <v>112.3476120565112</v>
       </c>
       <c r="E9" t="n">
-        <v>25.79046548597334</v>
+        <v>112.3476120565112</v>
       </c>
       <c r="F9" t="n">
-        <v>25.79046548597334</v>
+        <v>112.3476120565112</v>
       </c>
       <c r="G9" t="n">
-        <v>25.79046548597334</v>
+        <v>112.3476120565112</v>
       </c>
       <c r="H9" t="n">
-        <v>25.79046548597334</v>
+        <v>8.969012809993888</v>
       </c>
       <c r="I9" t="n">
-        <v>25.79046548597334</v>
+        <v>8.969012809993888</v>
       </c>
       <c r="J9" t="n">
         <v>8.969012809993888</v>
@@ -4904,31 +4904,31 @@
         <v>448.4506404996944</v>
       </c>
       <c r="Q9" t="n">
-        <v>448.4506404996944</v>
+        <v>439.1005811301778</v>
       </c>
       <c r="R9" t="n">
-        <v>365.525799197863</v>
+        <v>439.1005811301778</v>
       </c>
       <c r="S9" t="n">
-        <v>365.525799197863</v>
+        <v>439.1005811301778</v>
       </c>
       <c r="T9" t="n">
-        <v>365.525799197863</v>
+        <v>325.8554698928812</v>
       </c>
       <c r="U9" t="n">
-        <v>252.2806879605665</v>
+        <v>325.8554698928812</v>
       </c>
       <c r="V9" t="n">
-        <v>139.0355767232699</v>
+        <v>325.8554698928812</v>
       </c>
       <c r="W9" t="n">
-        <v>139.0355767232699</v>
+        <v>225.5927232938078</v>
       </c>
       <c r="X9" t="n">
-        <v>139.0355767232699</v>
+        <v>225.5927232938078</v>
       </c>
       <c r="Y9" t="n">
-        <v>139.0355767232699</v>
+        <v>225.5927232938078</v>
       </c>
     </row>
     <row r="10">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>302.7659090087201</v>
+        <v>791.7036477667338</v>
       </c>
       <c r="C11" t="n">
-        <v>302.7659090087201</v>
+        <v>524.2361991968912</v>
       </c>
       <c r="D11" t="n">
-        <v>302.7659090087201</v>
+        <v>256.7687506270487</v>
       </c>
       <c r="E11" t="n">
-        <v>302.7659090087201</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="F11" t="n">
-        <v>302.7659090087201</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="G11" t="n">
-        <v>22.219292062167</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="H11" t="n">
-        <v>22.219292062167</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="I11" t="n">
-        <v>22.219292062167</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="J11" t="n">
-        <v>54.48370099033306</v>
+        <v>49.68272158525122</v>
       </c>
       <c r="K11" t="n">
-        <v>153.5782045344286</v>
+        <v>143.1343023380388</v>
       </c>
       <c r="L11" t="n">
-        <v>313.4154605742206</v>
+        <v>295.9710136738474</v>
       </c>
       <c r="M11" t="n">
-        <v>522.9346427047099</v>
+        <v>497.7007409605976</v>
       </c>
       <c r="N11" t="n">
-        <v>740.4578726264642</v>
+        <v>707.3084745156174</v>
       </c>
       <c r="O11" t="n">
-        <v>932.5236291615316</v>
+        <v>891.8998522886279</v>
       </c>
       <c r="P11" t="n">
-        <v>1061.946307906932</v>
+        <v>1014.943321686477</v>
       </c>
       <c r="Q11" t="n">
-        <v>1110.96460310835</v>
+        <v>1059.171096336576</v>
       </c>
       <c r="R11" t="n">
-        <v>1110.96460310835</v>
+        <v>1059.171096336576</v>
       </c>
       <c r="S11" t="n">
-        <v>1110.96460310835</v>
+        <v>1059.171096336576</v>
       </c>
       <c r="T11" t="n">
-        <v>1110.96460310835</v>
+        <v>1059.171096336576</v>
       </c>
       <c r="U11" t="n">
-        <v>857.2835077183261</v>
+        <v>1059.171096336576</v>
       </c>
       <c r="V11" t="n">
-        <v>857.2835077183261</v>
+        <v>1059.171096336576</v>
       </c>
       <c r="W11" t="n">
-        <v>857.2835077183261</v>
+        <v>1059.171096336576</v>
       </c>
       <c r="X11" t="n">
-        <v>583.3125259552731</v>
+        <v>1059.171096336576</v>
       </c>
       <c r="Y11" t="n">
-        <v>583.3125259552731</v>
+        <v>1059.171096336576</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>355.9097763487495</v>
+        <v>479.5656777796664</v>
       </c>
       <c r="C12" t="n">
-        <v>181.4567470676225</v>
+        <v>305.1126484985394</v>
       </c>
       <c r="D12" t="n">
-        <v>181.4567470676225</v>
+        <v>305.1126484985394</v>
       </c>
       <c r="E12" t="n">
-        <v>22.219292062167</v>
+        <v>305.1126484985394</v>
       </c>
       <c r="F12" t="n">
-        <v>22.219292062167</v>
+        <v>158.5780905254244</v>
       </c>
       <c r="G12" t="n">
-        <v>22.219292062167</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="H12" t="n">
-        <v>22.219292062167</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="I12" t="n">
-        <v>22.219292062167</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="J12" t="n">
-        <v>22.61790602946104</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="K12" t="n">
-        <v>101.4540255147897</v>
+        <v>96.18679738796818</v>
       </c>
       <c r="L12" t="n">
-        <v>253.7814582993868</v>
+        <v>243.3606328421832</v>
       </c>
       <c r="M12" t="n">
-        <v>450.8972557104411</v>
+        <v>434.462425248164</v>
       </c>
       <c r="N12" t="n">
-        <v>667.6387666583523</v>
+        <v>645.0307583737477</v>
       </c>
       <c r="O12" t="n">
-        <v>843.6951100857978</v>
+        <v>815.4398501219439</v>
       </c>
       <c r="P12" t="n">
-        <v>965.6627808444571</v>
+        <v>932.8751035375032</v>
       </c>
       <c r="Q12" t="n">
-        <v>997.2757423093198</v>
+        <v>961.4582640387573</v>
       </c>
       <c r="R12" t="n">
-        <v>997.2757423093198</v>
+        <v>961.4582640387573</v>
       </c>
       <c r="S12" t="n">
-        <v>997.2757423093198</v>
+        <v>961.4582640387573</v>
       </c>
       <c r="T12" t="n">
-        <v>800.5724100494605</v>
+        <v>961.4582640387573</v>
       </c>
       <c r="U12" t="n">
-        <v>771.5215753192363</v>
+        <v>961.4582640387573</v>
       </c>
       <c r="V12" t="n">
-        <v>771.5215753192363</v>
+        <v>961.4582640387573</v>
       </c>
       <c r="W12" t="n">
-        <v>771.5215753192363</v>
+        <v>707.2209073105557</v>
       </c>
       <c r="X12" t="n">
-        <v>563.6700751137034</v>
+        <v>647.7810147997345</v>
       </c>
       <c r="Y12" t="n">
-        <v>355.9097763487495</v>
+        <v>647.7810147997345</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22.219292062167</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="C13" t="n">
-        <v>22.219292062167</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="D13" t="n">
-        <v>22.219292062167</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="E13" t="n">
-        <v>22.219292062167</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="F13" t="n">
-        <v>22.219292062167</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="G13" t="n">
-        <v>22.219292062167</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="H13" t="n">
-        <v>22.219292062167</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="I13" t="n">
-        <v>22.219292062167</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="J13" t="n">
-        <v>22.219292062167</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="K13" t="n">
-        <v>24.36375904068346</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="L13" t="n">
-        <v>57.01373616125484</v>
+        <v>50.87496806962282</v>
       </c>
       <c r="M13" t="n">
-        <v>94.69684218448387</v>
+        <v>85.43882342951947</v>
       </c>
       <c r="N13" t="n">
-        <v>139.3414540783119</v>
+        <v>127.0383534689211</v>
       </c>
       <c r="O13" t="n">
-        <v>160.2648901844698</v>
+        <v>145.1491636217362</v>
       </c>
       <c r="P13" t="n">
-        <v>160.2648901844698</v>
+        <v>145.1491636217362</v>
       </c>
       <c r="Q13" t="n">
-        <v>160.2648901844698</v>
+        <v>145.1491636217362</v>
       </c>
       <c r="R13" t="n">
-        <v>160.2648901844698</v>
+        <v>145.1491636217362</v>
       </c>
       <c r="S13" t="n">
-        <v>160.2648901844698</v>
+        <v>145.1491636217362</v>
       </c>
       <c r="T13" t="n">
-        <v>160.2648901844698</v>
+        <v>145.1491636217362</v>
       </c>
       <c r="U13" t="n">
-        <v>160.2648901844698</v>
+        <v>145.1491636217362</v>
       </c>
       <c r="V13" t="n">
-        <v>22.219292062167</v>
+        <v>145.1491636217362</v>
       </c>
       <c r="W13" t="n">
-        <v>22.219292062167</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="X13" t="n">
-        <v>22.219292062167</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.219292062167</v>
+        <v>21.18342192673153</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>583.3125259552733</v>
+        <v>288.650870496574</v>
       </c>
       <c r="C14" t="n">
-        <v>583.3125259552733</v>
+        <v>288.650870496574</v>
       </c>
       <c r="D14" t="n">
-        <v>302.7659090087201</v>
+        <v>288.650870496574</v>
       </c>
       <c r="E14" t="n">
-        <v>22.21929206216701</v>
+        <v>288.650870496574</v>
       </c>
       <c r="F14" t="n">
-        <v>22.21929206216701</v>
+        <v>288.650870496574</v>
       </c>
       <c r="G14" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="H14" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="I14" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="J14" t="n">
-        <v>54.48370099033298</v>
+        <v>49.68272158525122</v>
       </c>
       <c r="K14" t="n">
-        <v>153.5782045344286</v>
+        <v>143.1343023380388</v>
       </c>
       <c r="L14" t="n">
-        <v>313.4154605742206</v>
+        <v>295.9710136738473</v>
       </c>
       <c r="M14" t="n">
-        <v>522.9346427047099</v>
+        <v>497.7007409605976</v>
       </c>
       <c r="N14" t="n">
-        <v>740.4578726264641</v>
+        <v>707.3084745156174</v>
       </c>
       <c r="O14" t="n">
-        <v>932.5236291615314</v>
+        <v>891.8998522886279</v>
       </c>
       <c r="P14" t="n">
-        <v>1061.946307906932</v>
+        <v>1014.943321686477</v>
       </c>
       <c r="Q14" t="n">
-        <v>1110.96460310835</v>
+        <v>1059.171096336576</v>
       </c>
       <c r="R14" t="n">
-        <v>1110.96460310835</v>
+        <v>998.2770133262806</v>
       </c>
       <c r="S14" t="n">
-        <v>957.7711496014549</v>
+        <v>844.0521518423413</v>
       </c>
       <c r="T14" t="n">
-        <v>957.7711496014549</v>
+        <v>844.0521518423413</v>
       </c>
       <c r="U14" t="n">
-        <v>957.7711496014549</v>
+        <v>844.0521518423413</v>
       </c>
       <c r="V14" t="n">
-        <v>863.8591429018263</v>
+        <v>844.0521518423413</v>
       </c>
       <c r="W14" t="n">
-        <v>863.8591429018263</v>
+        <v>844.0521518423413</v>
       </c>
       <c r="X14" t="n">
-        <v>863.8591429018263</v>
+        <v>576.5847032724988</v>
       </c>
       <c r="Y14" t="n">
-        <v>583.3125259552733</v>
+        <v>309.1172547026563</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>480.5773306065319</v>
+        <v>180.420876932187</v>
       </c>
       <c r="C15" t="n">
-        <v>306.1243013254049</v>
+        <v>180.420876932187</v>
       </c>
       <c r="D15" t="n">
-        <v>306.1243013254049</v>
+        <v>180.420876932187</v>
       </c>
       <c r="E15" t="n">
-        <v>306.1243013254049</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="F15" t="n">
-        <v>159.5897433522899</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="G15" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="H15" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="I15" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="J15" t="n">
-        <v>22.61790602946105</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="K15" t="n">
-        <v>101.4540255147897</v>
+        <v>96.18679738796818</v>
       </c>
       <c r="L15" t="n">
-        <v>253.7814582993868</v>
+        <v>243.3606328421832</v>
       </c>
       <c r="M15" t="n">
-        <v>450.8972557104411</v>
+        <v>434.462425248164</v>
       </c>
       <c r="N15" t="n">
-        <v>667.6387666583523</v>
+        <v>645.0307583737477</v>
       </c>
       <c r="O15" t="n">
-        <v>843.6951100857978</v>
+        <v>815.4398501219439</v>
       </c>
       <c r="P15" t="n">
-        <v>965.6627808444571</v>
+        <v>932.8751035375032</v>
       </c>
       <c r="Q15" t="n">
-        <v>997.2757423093198</v>
+        <v>961.4582640387573</v>
       </c>
       <c r="R15" t="n">
-        <v>997.2757423093198</v>
+        <v>961.4582640387573</v>
       </c>
       <c r="S15" t="n">
-        <v>997.2757423093198</v>
+        <v>812.8594463629311</v>
       </c>
       <c r="T15" t="n">
-        <v>997.2757423093198</v>
+        <v>616.0585013549323</v>
       </c>
       <c r="U15" t="n">
-        <v>997.2757423093198</v>
+        <v>616.0585013549323</v>
       </c>
       <c r="V15" t="n">
-        <v>997.2757423093198</v>
+        <v>434.6582336603886</v>
       </c>
       <c r="W15" t="n">
-        <v>856.5529663915538</v>
+        <v>180.420876932187</v>
       </c>
       <c r="X15" t="n">
-        <v>856.5529663915538</v>
+        <v>180.420876932187</v>
       </c>
       <c r="Y15" t="n">
-        <v>648.7926676266</v>
+        <v>180.420876932187</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>160.2648901844699</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="C16" t="n">
-        <v>160.2648901844699</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="D16" t="n">
-        <v>160.2648901844699</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="E16" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="F16" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="G16" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="H16" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="I16" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="J16" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="K16" t="n">
-        <v>24.36375904068347</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="L16" t="n">
-        <v>57.01373616125485</v>
+        <v>50.87496806962282</v>
       </c>
       <c r="M16" t="n">
-        <v>94.69684218448388</v>
+        <v>85.43882342951947</v>
       </c>
       <c r="N16" t="n">
-        <v>139.3414540783119</v>
+        <v>127.0383534689211</v>
       </c>
       <c r="O16" t="n">
-        <v>160.2648901844699</v>
+        <v>145.1491636217362</v>
       </c>
       <c r="P16" t="n">
-        <v>160.2648901844699</v>
+        <v>145.1491636217362</v>
       </c>
       <c r="Q16" t="n">
-        <v>160.2648901844699</v>
+        <v>145.1491636217362</v>
       </c>
       <c r="R16" t="n">
-        <v>160.2648901844699</v>
+        <v>145.1491636217362</v>
       </c>
       <c r="S16" t="n">
-        <v>160.2648901844699</v>
+        <v>145.1491636217362</v>
       </c>
       <c r="T16" t="n">
-        <v>160.2648901844699</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="U16" t="n">
-        <v>160.2648901844699</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="V16" t="n">
-        <v>160.2648901844699</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="W16" t="n">
-        <v>160.2648901844699</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="X16" t="n">
-        <v>160.2648901844699</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="Y16" t="n">
-        <v>160.2648901844699</v>
+        <v>21.18342192673153</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>585.0132016057659</v>
+        <v>556.1183190664166</v>
       </c>
       <c r="C17" t="n">
-        <v>304.4665846592127</v>
+        <v>556.1183190664166</v>
       </c>
       <c r="D17" t="n">
-        <v>304.4665846592127</v>
+        <v>556.1183190664166</v>
       </c>
       <c r="E17" t="n">
-        <v>302.7659090087201</v>
+        <v>556.1183190664166</v>
       </c>
       <c r="F17" t="n">
-        <v>22.21929206216701</v>
+        <v>288.650870496574</v>
       </c>
       <c r="G17" t="n">
-        <v>22.21929206216701</v>
+        <v>288.650870496574</v>
       </c>
       <c r="H17" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="I17" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="J17" t="n">
-        <v>54.48370099033298</v>
+        <v>49.68272158525122</v>
       </c>
       <c r="K17" t="n">
-        <v>153.5782045344286</v>
+        <v>143.1343023380388</v>
       </c>
       <c r="L17" t="n">
-        <v>313.4154605742206</v>
+        <v>295.9710136738474</v>
       </c>
       <c r="M17" t="n">
-        <v>522.9346427047099</v>
+        <v>497.7007409605976</v>
       </c>
       <c r="N17" t="n">
-        <v>740.4578726264641</v>
+        <v>707.3084745156173</v>
       </c>
       <c r="O17" t="n">
-        <v>932.5236291615314</v>
+        <v>891.8998522886279</v>
       </c>
       <c r="P17" t="n">
-        <v>1061.946307906932</v>
+        <v>1014.943321686477</v>
       </c>
       <c r="Q17" t="n">
-        <v>1110.96460310835</v>
+        <v>1059.171096336576</v>
       </c>
       <c r="R17" t="n">
-        <v>1052.91370962468</v>
+        <v>1059.171096336576</v>
       </c>
       <c r="S17" t="n">
-        <v>1052.91370962468</v>
+        <v>1059.171096336576</v>
       </c>
       <c r="T17" t="n">
-        <v>838.6942969957898</v>
+        <v>844.7535492734785</v>
       </c>
       <c r="U17" t="n">
-        <v>585.0132016057659</v>
+        <v>591.0688329229207</v>
       </c>
       <c r="V17" t="n">
-        <v>585.0132016057659</v>
+        <v>556.1183190664166</v>
       </c>
       <c r="W17" t="n">
-        <v>585.0132016057659</v>
+        <v>556.1183190664166</v>
       </c>
       <c r="X17" t="n">
-        <v>585.0132016057659</v>
+        <v>556.1183190664166</v>
       </c>
       <c r="Y17" t="n">
-        <v>585.0132016057659</v>
+        <v>556.1183190664166</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>196.672321343294</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="C18" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="D18" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="E18" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="F18" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="G18" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="H18" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="I18" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="J18" t="n">
-        <v>22.61790602946105</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="K18" t="n">
-        <v>101.4540255147897</v>
+        <v>96.18679738796818</v>
       </c>
       <c r="L18" t="n">
-        <v>253.7814582993868</v>
+        <v>243.3606328421832</v>
       </c>
       <c r="M18" t="n">
-        <v>450.8972557104411</v>
+        <v>434.462425248164</v>
       </c>
       <c r="N18" t="n">
-        <v>667.6387666583523</v>
+        <v>645.0307583737477</v>
       </c>
       <c r="O18" t="n">
-        <v>843.6951100857978</v>
+        <v>815.4398501219439</v>
       </c>
       <c r="P18" t="n">
-        <v>965.6627808444571</v>
+        <v>932.8751035375032</v>
       </c>
       <c r="Q18" t="n">
-        <v>997.2757423093198</v>
+        <v>961.4582640387573</v>
       </c>
       <c r="R18" t="n">
-        <v>997.2757423093198</v>
+        <v>961.4582640387573</v>
       </c>
       <c r="S18" t="n">
-        <v>997.2757423093198</v>
+        <v>961.4582640387573</v>
       </c>
       <c r="T18" t="n">
-        <v>997.2757423093198</v>
+        <v>961.4582640387573</v>
       </c>
       <c r="U18" t="n">
-        <v>769.1416223435549</v>
+        <v>961.4582640387573</v>
       </c>
       <c r="V18" t="n">
-        <v>769.1416223435549</v>
+        <v>726.3061558070146</v>
       </c>
       <c r="W18" t="n">
-        <v>769.1416223435549</v>
+        <v>605.0105579172863</v>
       </c>
       <c r="X18" t="n">
-        <v>561.2901221380221</v>
+        <v>397.1590577117535</v>
       </c>
       <c r="Y18" t="n">
-        <v>353.5298233730682</v>
+        <v>189.3987589467995</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="C19" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="D19" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="E19" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="F19" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="G19" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="H19" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="I19" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="J19" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="K19" t="n">
-        <v>24.36375904068347</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="L19" t="n">
-        <v>57.01373616125485</v>
+        <v>50.87496806962282</v>
       </c>
       <c r="M19" t="n">
-        <v>94.69684218448388</v>
+        <v>85.43882342951947</v>
       </c>
       <c r="N19" t="n">
-        <v>139.3414540783119</v>
+        <v>127.0383534689211</v>
       </c>
       <c r="O19" t="n">
-        <v>160.2648901844699</v>
+        <v>145.1491636217362</v>
       </c>
       <c r="P19" t="n">
-        <v>160.2648901844699</v>
+        <v>145.1491636217362</v>
       </c>
       <c r="Q19" t="n">
-        <v>160.2648901844699</v>
+        <v>145.1491636217362</v>
       </c>
       <c r="R19" t="n">
-        <v>160.2648901844699</v>
+        <v>145.1491636217362</v>
       </c>
       <c r="S19" t="n">
-        <v>160.2648901844699</v>
+        <v>145.1491636217362</v>
       </c>
       <c r="T19" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="U19" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="V19" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="W19" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="X19" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="Y19" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>677.2245326549019</v>
+        <v>556.1183190664166</v>
       </c>
       <c r="C20" t="n">
-        <v>396.6779157083487</v>
+        <v>556.1183190664166</v>
       </c>
       <c r="D20" t="n">
-        <v>302.7659090087201</v>
+        <v>288.650870496574</v>
       </c>
       <c r="E20" t="n">
-        <v>302.7659090087201</v>
+        <v>288.650870496574</v>
       </c>
       <c r="F20" t="n">
-        <v>302.7659090087201</v>
+        <v>288.650870496574</v>
       </c>
       <c r="G20" t="n">
-        <v>302.7659090087201</v>
+        <v>288.650870496574</v>
       </c>
       <c r="H20" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="I20" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="J20" t="n">
-        <v>54.48370099033298</v>
+        <v>49.68272158525122</v>
       </c>
       <c r="K20" t="n">
-        <v>153.5782045344287</v>
+        <v>143.1343023380388</v>
       </c>
       <c r="L20" t="n">
-        <v>313.4154605742207</v>
+        <v>295.9710136738474</v>
       </c>
       <c r="M20" t="n">
-        <v>522.9346427047101</v>
+        <v>497.7007409605976</v>
       </c>
       <c r="N20" t="n">
-        <v>740.4578726264645</v>
+        <v>707.3084745156173</v>
       </c>
       <c r="O20" t="n">
-        <v>932.523629161532</v>
+        <v>891.8998522886279</v>
       </c>
       <c r="P20" t="n">
-        <v>1061.946307906932</v>
+        <v>1014.943321686477</v>
       </c>
       <c r="Q20" t="n">
-        <v>1110.96460310835</v>
+        <v>1059.171096336576</v>
       </c>
       <c r="R20" t="n">
-        <v>1110.96460310835</v>
+        <v>1059.171096336576</v>
       </c>
       <c r="S20" t="n">
-        <v>957.7711496014549</v>
+        <v>1059.171096336576</v>
       </c>
       <c r="T20" t="n">
-        <v>957.7711496014549</v>
+        <v>1059.171096336576</v>
       </c>
       <c r="U20" t="n">
-        <v>957.7711496014549</v>
+        <v>1059.171096336576</v>
       </c>
       <c r="V20" t="n">
-        <v>957.7711496014549</v>
+        <v>823.5857676362591</v>
       </c>
       <c r="W20" t="n">
-        <v>677.2245326549019</v>
+        <v>556.1183190664166</v>
       </c>
       <c r="X20" t="n">
-        <v>677.2245326549019</v>
+        <v>556.1183190664166</v>
       </c>
       <c r="Y20" t="n">
-        <v>677.2245326549019</v>
+        <v>556.1183190664166</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>22.21929206216701</v>
+        <v>510.4199623025569</v>
       </c>
       <c r="C21" t="n">
-        <v>22.21929206216701</v>
+        <v>335.9669330214299</v>
       </c>
       <c r="D21" t="n">
-        <v>22.21929206216701</v>
+        <v>187.0325233601786</v>
       </c>
       <c r="E21" t="n">
-        <v>22.21929206216701</v>
+        <v>27.79506835472313</v>
       </c>
       <c r="F21" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="G21" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="H21" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="I21" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="J21" t="n">
-        <v>22.61790602946107</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="K21" t="n">
-        <v>101.4540255147898</v>
+        <v>96.18679738796818</v>
       </c>
       <c r="L21" t="n">
-        <v>253.7814582993869</v>
+        <v>243.3606328421832</v>
       </c>
       <c r="M21" t="n">
-        <v>450.8972557104413</v>
+        <v>434.462425248164</v>
       </c>
       <c r="N21" t="n">
-        <v>667.6387666583528</v>
+        <v>645.0307583737477</v>
       </c>
       <c r="O21" t="n">
-        <v>843.6951100857982</v>
+        <v>815.4398501219439</v>
       </c>
       <c r="P21" t="n">
-        <v>965.6627808444576</v>
+        <v>932.8751035375032</v>
       </c>
       <c r="Q21" t="n">
-        <v>997.2757423093203</v>
+        <v>961.4582640387573</v>
       </c>
       <c r="R21" t="n">
-        <v>997.2757423093203</v>
+        <v>961.4582640387573</v>
       </c>
       <c r="S21" t="n">
-        <v>997.2757423093203</v>
+        <v>961.4582640387573</v>
       </c>
       <c r="T21" t="n">
-        <v>800.572410049461</v>
+        <v>764.6573190307586</v>
       </c>
       <c r="U21" t="n">
-        <v>800.572410049461</v>
+        <v>764.6573190307586</v>
       </c>
       <c r="V21" t="n">
-        <v>565.4203018177184</v>
+        <v>764.6573190307586</v>
       </c>
       <c r="W21" t="n">
-        <v>565.4203018177184</v>
+        <v>510.4199623025569</v>
       </c>
       <c r="X21" t="n">
-        <v>357.5688016121856</v>
+        <v>510.4199623025569</v>
       </c>
       <c r="Y21" t="n">
-        <v>149.8085028472316</v>
+        <v>510.4199623025569</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="C22" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="D22" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="E22" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="F22" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="G22" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="H22" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="I22" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="J22" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="K22" t="n">
-        <v>24.3637590406835</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="L22" t="n">
-        <v>57.0137361612549</v>
+        <v>50.87496806962282</v>
       </c>
       <c r="M22" t="n">
-        <v>94.69684218448397</v>
+        <v>85.43882342951947</v>
       </c>
       <c r="N22" t="n">
-        <v>139.341454078312</v>
+        <v>127.0383534689211</v>
       </c>
       <c r="O22" t="n">
-        <v>160.26489018447</v>
+        <v>145.1491636217362</v>
       </c>
       <c r="P22" t="n">
-        <v>160.26489018447</v>
+        <v>145.1491636217362</v>
       </c>
       <c r="Q22" t="n">
-        <v>160.26489018447</v>
+        <v>145.1491636217362</v>
       </c>
       <c r="R22" t="n">
-        <v>160.26489018447</v>
+        <v>145.1491636217362</v>
       </c>
       <c r="S22" t="n">
-        <v>160.26489018447</v>
+        <v>145.1491636217362</v>
       </c>
       <c r="T22" t="n">
-        <v>160.26489018447</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="U22" t="n">
-        <v>160.26489018447</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="V22" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="W22" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="X22" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
       <c r="Y22" t="n">
-        <v>22.21929206216701</v>
+        <v>21.18342192673153</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1318.301801521354</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="C23" t="n">
-        <v>949.3392845809428</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="D23" t="n">
-        <v>949.3392845809428</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="E23" t="n">
-        <v>949.3392845809428</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="F23" t="n">
-        <v>538.3533797913353</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="G23" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H23" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I23" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="J23" t="n">
-        <v>152.5078184301901</v>
+        <v>152.5078184301898</v>
       </c>
       <c r="K23" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232715</v>
       </c>
       <c r="L23" t="n">
-        <v>669.5878927711874</v>
+        <v>669.5878927711864</v>
       </c>
       <c r="M23" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578729</v>
       </c>
       <c r="N23" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O23" t="n">
         <v>1761.960612545596</v>
@@ -6019,22 +6019,22 @@
         <v>2168.459826904653</v>
       </c>
       <c r="T23" t="n">
-        <v>1958.285829056568</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U23" t="n">
-        <v>1704.678664719077</v>
+        <v>2020.591076925307</v>
       </c>
       <c r="V23" t="n">
-        <v>1373.615777375507</v>
+        <v>2020.591076925307</v>
       </c>
       <c r="W23" t="n">
-        <v>1318.301801521354</v>
+        <v>2020.591076925307</v>
       </c>
       <c r="X23" t="n">
-        <v>1318.301801521354</v>
+        <v>1647.125318664227</v>
       </c>
       <c r="Y23" t="n">
-        <v>1318.301801521354</v>
+        <v>1256.985986688415</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>267.4604631511913</v>
+        <v>941.5261380428188</v>
       </c>
       <c r="C24" t="n">
-        <v>93.00743387006426</v>
+        <v>767.0731087616919</v>
       </c>
       <c r="D24" t="n">
-        <v>93.00743387006426</v>
+        <v>618.1386991004406</v>
       </c>
       <c r="E24" t="n">
-        <v>93.00743387006426</v>
+        <v>458.9012440949851</v>
       </c>
       <c r="F24" t="n">
-        <v>93.00743387006426</v>
+        <v>312.3666861218701</v>
       </c>
       <c r="G24" t="n">
-        <v>93.00743387006426</v>
+        <v>175.490692336986</v>
       </c>
       <c r="H24" t="n">
-        <v>43.36919653809306</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="I24" t="n">
         <v>43.36919653809306</v>
@@ -6092,28 +6092,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R24" t="n">
-        <v>1734.238298972664</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S24" t="n">
-        <v>1595.273638474382</v>
+        <v>1627.262386835205</v>
       </c>
       <c r="T24" t="n">
-        <v>1400.563316948358</v>
+        <v>1432.552065309181</v>
       </c>
       <c r="U24" t="n">
-        <v>1172.461727081622</v>
+        <v>1432.552065309181</v>
       </c>
       <c r="V24" t="n">
-        <v>937.3096188498796</v>
+        <v>1432.552065309181</v>
       </c>
       <c r="W24" t="n">
-        <v>683.072262121678</v>
+        <v>1178.314708580979</v>
       </c>
       <c r="X24" t="n">
-        <v>475.2207619161452</v>
+        <v>1109.741475062887</v>
       </c>
       <c r="Y24" t="n">
-        <v>267.4604631511913</v>
+        <v>1109.741475062887</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>359.1953269639104</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C25" t="n">
-        <v>190.2591440360034</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D25" t="n">
-        <v>190.2591440360034</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E25" t="n">
-        <v>190.2591440360034</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F25" t="n">
         <v>43.36919653809306</v>
@@ -6180,19 +6180,19 @@
         <v>520.2893470405991</v>
       </c>
       <c r="U25" t="n">
-        <v>520.2893470405991</v>
+        <v>332.7863665750536</v>
       </c>
       <c r="V25" t="n">
-        <v>520.2893470405991</v>
+        <v>332.7863665750536</v>
       </c>
       <c r="W25" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X25" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y25" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1260.536454831512</v>
+        <v>1094.488952315156</v>
       </c>
       <c r="C26" t="n">
-        <v>891.5739378911005</v>
+        <v>725.5264353747446</v>
       </c>
       <c r="D26" t="n">
-        <v>533.3082392843501</v>
+        <v>725.5264353747446</v>
       </c>
       <c r="E26" t="n">
-        <v>533.3082392843501</v>
+        <v>339.7381827765003</v>
       </c>
       <c r="F26" t="n">
-        <v>122.3223344947425</v>
+        <v>339.7381827765003</v>
       </c>
       <c r="G26" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H26" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I26" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="J26" t="n">
-        <v>152.5078184301898</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K26" t="n">
-        <v>366.8168396232715</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L26" t="n">
-        <v>669.5878927711864</v>
+        <v>669.5878927711872</v>
       </c>
       <c r="M26" t="n">
-        <v>1038.148464578729</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N26" t="n">
         <v>1417.286540135166</v>
@@ -6259,19 +6259,19 @@
         <v>2168.459826904653</v>
       </c>
       <c r="U26" t="n">
-        <v>1914.852662567162</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V26" t="n">
-        <v>1613.305110101626</v>
+        <v>1837.396939561082</v>
       </c>
       <c r="W26" t="n">
-        <v>1260.536454831512</v>
+        <v>1484.628284290968</v>
       </c>
       <c r="X26" t="n">
-        <v>1260.536454831512</v>
+        <v>1484.628284290968</v>
       </c>
       <c r="Y26" t="n">
-        <v>1260.536454831512</v>
+        <v>1094.488952315156</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>464.9088565162518</v>
+        <v>438.4138720102957</v>
       </c>
       <c r="C27" t="n">
-        <v>464.9088565162518</v>
+        <v>263.9608427291687</v>
       </c>
       <c r="D27" t="n">
-        <v>464.9088565162518</v>
+        <v>263.9608427291687</v>
       </c>
       <c r="E27" t="n">
-        <v>305.6714015107963</v>
+        <v>104.7233877237132</v>
       </c>
       <c r="F27" t="n">
-        <v>305.6714015107963</v>
+        <v>104.7233877237132</v>
       </c>
       <c r="G27" t="n">
-        <v>168.7954077259122</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H27" t="n">
-        <v>73.34004079474536</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I27" t="n">
         <v>43.36919653809306</v>
@@ -6335,22 +6335,22 @@
         <v>1766.227047333487</v>
       </c>
       <c r="T27" t="n">
-        <v>1766.227047333487</v>
+        <v>1571.516725807463</v>
       </c>
       <c r="U27" t="n">
-        <v>1538.125457466751</v>
+        <v>1343.415135940727</v>
       </c>
       <c r="V27" t="n">
-        <v>1302.973349235008</v>
+        <v>1108.263027708984</v>
       </c>
       <c r="W27" t="n">
-        <v>1048.735992506806</v>
+        <v>854.0256709807825</v>
       </c>
       <c r="X27" t="n">
-        <v>840.8844923012737</v>
+        <v>646.1741707752496</v>
       </c>
       <c r="Y27" t="n">
-        <v>633.1241935363198</v>
+        <v>438.4138720102957</v>
       </c>
     </row>
     <row r="28">
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>190.2591440360034</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="C28" t="n">
-        <v>190.2591440360034</v>
+        <v>488.2888770307322</v>
       </c>
       <c r="D28" t="n">
-        <v>190.2591440360034</v>
+        <v>338.1722376183965</v>
       </c>
       <c r="E28" t="n">
         <v>190.2591440360034</v>
@@ -6417,19 +6417,19 @@
         <v>520.2893470405991</v>
       </c>
       <c r="U28" t="n">
-        <v>479.676314072964</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V28" t="n">
-        <v>479.676314072964</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W28" t="n">
-        <v>190.2591440360034</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X28" t="n">
-        <v>190.2591440360034</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Y28" t="n">
-        <v>190.2591440360034</v>
+        <v>520.2893470405991</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>764.6477322661488</v>
+        <v>1567.371569473107</v>
       </c>
       <c r="C29" t="n">
-        <v>395.685215325737</v>
+        <v>1198.409052532695</v>
       </c>
       <c r="D29" t="n">
-        <v>395.685215325737</v>
+        <v>840.1433539259449</v>
       </c>
       <c r="E29" t="n">
-        <v>395.685215325737</v>
+        <v>454.3551013277006</v>
       </c>
       <c r="F29" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="G29" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="H29" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="I29" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="J29" t="n">
-        <v>152.5078184301898</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K29" t="n">
-        <v>366.8168396232715</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L29" t="n">
-        <v>669.5878927711864</v>
+        <v>669.5878927711863</v>
       </c>
       <c r="M29" t="n">
         <v>1038.148464578729</v>
@@ -6478,37 +6478,37 @@
         <v>1417.286540135166</v>
       </c>
       <c r="O29" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.960612545595</v>
       </c>
       <c r="P29" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172446</v>
       </c>
       <c r="Q29" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="R29" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S29" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="T29" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="U29" t="n">
-        <v>1914.852662567162</v>
+        <v>1940.837327734187</v>
       </c>
       <c r="V29" t="n">
-        <v>1914.852662567162</v>
+        <v>1940.837327734187</v>
       </c>
       <c r="W29" t="n">
-        <v>1914.852662567162</v>
+        <v>1940.837327734187</v>
       </c>
       <c r="X29" t="n">
-        <v>1541.386904306082</v>
+        <v>1567.371569473107</v>
       </c>
       <c r="Y29" t="n">
-        <v>1151.24757233027</v>
+        <v>1567.371569473107</v>
       </c>
     </row>
     <row r="30">
@@ -6518,31 +6518,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>438.4138720102957</v>
+        <v>693.0104463829875</v>
       </c>
       <c r="C30" t="n">
-        <v>263.9608427291687</v>
+        <v>518.5574171018606</v>
       </c>
       <c r="D30" t="n">
-        <v>263.9608427291687</v>
+        <v>369.6230074406093</v>
       </c>
       <c r="E30" t="n">
-        <v>104.7233877237132</v>
+        <v>210.3855524351538</v>
       </c>
       <c r="F30" t="n">
-        <v>43.36919653809306</v>
+        <v>63.85099446203876</v>
       </c>
       <c r="G30" t="n">
-        <v>43.36919653809306</v>
+        <v>63.85099446203876</v>
       </c>
       <c r="H30" t="n">
-        <v>43.36919653809306</v>
+        <v>63.85099446203876</v>
       </c>
       <c r="I30" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="J30" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562314</v>
       </c>
       <c r="K30" t="n">
         <v>246.6448318504519</v>
@@ -6572,22 +6572,22 @@
         <v>1766.227047333487</v>
       </c>
       <c r="T30" t="n">
-        <v>1571.516725807463</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="U30" t="n">
-        <v>1343.415135940727</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="V30" t="n">
-        <v>1108.263027708984</v>
+        <v>1531.074939101744</v>
       </c>
       <c r="W30" t="n">
-        <v>854.0256709807825</v>
+        <v>1276.837582373542</v>
       </c>
       <c r="X30" t="n">
-        <v>646.1741707752496</v>
+        <v>1068.986082168009</v>
       </c>
       <c r="Y30" t="n">
-        <v>438.4138720102957</v>
+        <v>861.2257834030556</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>190.2591440360034</v>
+        <v>115.0370249029829</v>
       </c>
       <c r="C31" t="n">
-        <v>190.2591440360034</v>
+        <v>115.0370249029829</v>
       </c>
       <c r="D31" t="n">
-        <v>190.2591440360034</v>
+        <v>115.0370249029829</v>
       </c>
       <c r="E31" t="n">
-        <v>190.2591440360034</v>
+        <v>115.0370249029829</v>
       </c>
       <c r="F31" t="n">
-        <v>43.36919653809306</v>
+        <v>115.0370249029829</v>
       </c>
       <c r="G31" t="n">
-        <v>43.36919653809306</v>
+        <v>115.0370249029829</v>
       </c>
       <c r="H31" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="I31" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="J31" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="K31" t="n">
-        <v>92.71685897981521</v>
+        <v>92.7168589798152</v>
       </c>
       <c r="L31" t="n">
         <v>185.7706748018941</v>
@@ -6651,22 +6651,22 @@
         <v>520.2893470405991</v>
       </c>
       <c r="T31" t="n">
-        <v>520.2893470405991</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="U31" t="n">
-        <v>479.676314072964</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="V31" t="n">
-        <v>479.676314072964</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="W31" t="n">
-        <v>190.2591440360034</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="X31" t="n">
-        <v>190.2591440360034</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="Y31" t="n">
-        <v>190.2591440360034</v>
+        <v>296.6854897332227</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1536.052658116077</v>
+        <v>1256.174399222538</v>
       </c>
       <c r="C32" t="n">
-        <v>1536.052658116077</v>
+        <v>1256.174399222538</v>
       </c>
       <c r="D32" t="n">
-        <v>1177.786959509327</v>
+        <v>1256.174399222538</v>
       </c>
       <c r="E32" t="n">
-        <v>1177.786959509327</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="F32" t="n">
-        <v>766.8010547197192</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="G32" t="n">
-        <v>350.7700094231265</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H32" t="n">
         <v>43.36919653809306</v>
@@ -6700,16 +6700,16 @@
         <v>43.36919653809306</v>
       </c>
       <c r="J32" t="n">
-        <v>152.5078184301899</v>
+        <v>152.5078184301898</v>
       </c>
       <c r="K32" t="n">
-        <v>366.8168396232716</v>
+        <v>366.8168396232715</v>
       </c>
       <c r="L32" t="n">
-        <v>669.5878927711865</v>
+        <v>669.5878927711864</v>
       </c>
       <c r="M32" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578729</v>
       </c>
       <c r="N32" t="n">
         <v>1417.286540135166</v>
@@ -6727,25 +6727,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S32" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T32" t="n">
-        <v>1826.151173794699</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U32" t="n">
-        <v>1826.151173794699</v>
+        <v>2016.239997547739</v>
       </c>
       <c r="V32" t="n">
-        <v>1536.052658116077</v>
+        <v>2016.239997547739</v>
       </c>
       <c r="W32" t="n">
-        <v>1536.052658116077</v>
+        <v>2016.239997547739</v>
       </c>
       <c r="X32" t="n">
-        <v>1536.052658116077</v>
+        <v>1642.774239286659</v>
       </c>
       <c r="Y32" t="n">
-        <v>1536.052658116077</v>
+        <v>1642.774239286659</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>571.1695248885103</v>
+        <v>438.4138720102957</v>
       </c>
       <c r="C33" t="n">
-        <v>571.1695248885103</v>
+        <v>263.9608427291687</v>
       </c>
       <c r="D33" t="n">
-        <v>422.235115227259</v>
+        <v>115.0264330679174</v>
       </c>
       <c r="E33" t="n">
-        <v>422.235115227259</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F33" t="n">
-        <v>275.700557254144</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G33" t="n">
-        <v>138.8245634692599</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H33" t="n">
         <v>43.36919653809306</v>
@@ -6806,25 +6806,25 @@
         <v>1766.227047333487</v>
       </c>
       <c r="S33" t="n">
-        <v>1627.262386835205</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T33" t="n">
-        <v>1432.552065309181</v>
+        <v>1571.516725807463</v>
       </c>
       <c r="U33" t="n">
-        <v>1204.450475442445</v>
+        <v>1343.415135940727</v>
       </c>
       <c r="V33" t="n">
-        <v>1201.473718842313</v>
+        <v>1108.263027708984</v>
       </c>
       <c r="W33" t="n">
-        <v>947.2363621141112</v>
+        <v>854.0256709807825</v>
       </c>
       <c r="X33" t="n">
-        <v>739.3848619085784</v>
+        <v>646.1741707752496</v>
       </c>
       <c r="Y33" t="n">
-        <v>739.3848619085784</v>
+        <v>438.4138720102957</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>75.89291058969255</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C34" t="n">
-        <v>75.89291058969255</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D34" t="n">
-        <v>75.89291058969255</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E34" t="n">
-        <v>75.89291058969255</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F34" t="n">
-        <v>75.89291058969255</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G34" t="n">
         <v>43.36919653809306</v>
@@ -6888,22 +6888,22 @@
         <v>520.2893470405991</v>
       </c>
       <c r="T34" t="n">
-        <v>296.6854897332227</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U34" t="n">
-        <v>296.6854897332227</v>
+        <v>332.7863665750536</v>
       </c>
       <c r="V34" t="n">
-        <v>296.6854897332227</v>
+        <v>332.7863665750536</v>
       </c>
       <c r="W34" t="n">
-        <v>296.6854897332227</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X34" t="n">
-        <v>296.6854897332227</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y34" t="n">
-        <v>75.89291058969255</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1256.174399222538</v>
+        <v>1473.382518524585</v>
       </c>
       <c r="C35" t="n">
-        <v>1256.174399222538</v>
+        <v>1473.382518524585</v>
       </c>
       <c r="D35" t="n">
-        <v>1256.174399222538</v>
+        <v>1115.116819917834</v>
       </c>
       <c r="E35" t="n">
         <v>870.3861466242934</v>
@@ -6943,13 +6943,13 @@
         <v>366.8168396232717</v>
       </c>
       <c r="L35" t="n">
-        <v>669.5878927711872</v>
+        <v>669.5878927711869</v>
       </c>
       <c r="M35" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N35" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O35" t="n">
         <v>1761.960612545596</v>
@@ -6964,25 +6964,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S35" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T35" t="n">
-        <v>2168.459826904653</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="U35" t="n">
-        <v>2168.459826904653</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="V35" t="n">
-        <v>2168.459826904653</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="W35" t="n">
-        <v>2168.459826904653</v>
+        <v>1473.382518524585</v>
       </c>
       <c r="X35" t="n">
-        <v>2032.913571262471</v>
+        <v>1473.382518524585</v>
       </c>
       <c r="Y35" t="n">
-        <v>1642.774239286659</v>
+        <v>1473.382518524585</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>633.1241935363198</v>
+        <v>789.3443714910145</v>
       </c>
       <c r="C36" t="n">
-        <v>458.6711642551928</v>
+        <v>634.9516129627989</v>
       </c>
       <c r="D36" t="n">
-        <v>309.7367545939416</v>
+        <v>486.0172033015477</v>
       </c>
       <c r="E36" t="n">
-        <v>150.4992995884861</v>
+        <v>326.7797482960922</v>
       </c>
       <c r="F36" t="n">
-        <v>43.36919653809306</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G36" t="n">
         <v>43.36919653809306</v>
@@ -7040,28 +7040,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R36" t="n">
-        <v>1766.227047333487</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S36" t="n">
-        <v>1766.227047333487</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T36" t="n">
-        <v>1766.227047333487</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="U36" t="n">
-        <v>1538.125457466751</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="V36" t="n">
-        <v>1302.973349235008</v>
+        <v>1165.411208716615</v>
       </c>
       <c r="W36" t="n">
-        <v>1048.735992506806</v>
+        <v>1165.411208716615</v>
       </c>
       <c r="X36" t="n">
-        <v>840.8844923012737</v>
+        <v>957.5597085110826</v>
       </c>
       <c r="Y36" t="n">
-        <v>633.1241935363198</v>
+        <v>957.5597085110826</v>
       </c>
     </row>
     <row r="37">
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>193.4858359504288</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C37" t="n">
-        <v>193.4858359504288</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D37" t="n">
         <v>43.36919653809306</v>
@@ -7119,28 +7119,28 @@
         <v>520.2893470405991</v>
       </c>
       <c r="R37" t="n">
-        <v>411.1248508126813</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S37" t="n">
-        <v>411.1248508126813</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T37" t="n">
-        <v>411.1248508126813</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U37" t="n">
-        <v>193.4858359504288</v>
+        <v>298.0536847439799</v>
       </c>
       <c r="V37" t="n">
-        <v>193.4858359504288</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="W37" t="n">
-        <v>193.4858359504288</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X37" t="n">
-        <v>193.4858359504288</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y37" t="n">
-        <v>193.4858359504288</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>459.4002418346858</v>
+        <v>1528.25282250304</v>
       </c>
       <c r="C38" t="n">
-        <v>459.4002418346858</v>
+        <v>1159.290305562629</v>
       </c>
       <c r="D38" t="n">
-        <v>459.4002418346858</v>
+        <v>801.0246069558782</v>
       </c>
       <c r="E38" t="n">
-        <v>459.4002418346858</v>
+        <v>415.236354357634</v>
       </c>
       <c r="F38" t="n">
-        <v>459.4002418346858</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G38" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H38" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I38" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J38" t="n">
-        <v>152.5078184301901</v>
+        <v>152.5078184301904</v>
       </c>
       <c r="K38" t="n">
-        <v>366.8168396232718</v>
+        <v>366.8168396232721</v>
       </c>
       <c r="L38" t="n">
-        <v>669.5878927711865</v>
+        <v>669.5878927711869</v>
       </c>
       <c r="M38" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N38" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O38" t="n">
         <v>1761.960612545596</v>
@@ -7195,31 +7195,31 @@
         <v>2021.630958172447</v>
       </c>
       <c r="Q38" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R38" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S38" t="n">
-        <v>2052.689231330309</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T38" t="n">
-        <v>1842.515233482224</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U38" t="n">
-        <v>1588.908069144733</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="V38" t="n">
-        <v>1588.908069144733</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="W38" t="n">
-        <v>1236.139413874619</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="X38" t="n">
-        <v>1236.139413874619</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="Y38" t="n">
-        <v>846.0000818988076</v>
+        <v>1914.852662567162</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>254.4883546869462</v>
+        <v>486.0172033015477</v>
       </c>
       <c r="C39" t="n">
-        <v>80.03532540581917</v>
+        <v>486.0172033015477</v>
       </c>
       <c r="D39" t="n">
-        <v>80.03532540581917</v>
+        <v>486.0172033015477</v>
       </c>
       <c r="E39" t="n">
-        <v>80.03532540581917</v>
+        <v>326.7797482960922</v>
       </c>
       <c r="F39" t="n">
-        <v>80.03532540581917</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G39" t="n">
-        <v>80.03532540581917</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H39" t="n">
-        <v>80.03532540581917</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I39" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J39" t="n">
         <v>89.55356510562316</v>
@@ -7280,25 +7280,25 @@
         <v>1766.227047333487</v>
       </c>
       <c r="S39" t="n">
-        <v>1750.516867030205</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T39" t="n">
-        <v>1555.806545504181</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="U39" t="n">
-        <v>1327.704955637445</v>
+        <v>1538.125457466751</v>
       </c>
       <c r="V39" t="n">
-        <v>1092.552847405703</v>
+        <v>1302.973349235008</v>
       </c>
       <c r="W39" t="n">
-        <v>838.315490677501</v>
+        <v>1069.844339292102</v>
       </c>
       <c r="X39" t="n">
-        <v>630.4639904719681</v>
+        <v>861.9928390865696</v>
       </c>
       <c r="Y39" t="n">
-        <v>422.7036917070142</v>
+        <v>654.2325403216157</v>
       </c>
     </row>
     <row r="40">
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>361.6186653554104</v>
+        <v>338.1722376183965</v>
       </c>
       <c r="C40" t="n">
-        <v>361.6186653554104</v>
+        <v>338.1722376183965</v>
       </c>
       <c r="D40" t="n">
-        <v>211.5020259430747</v>
+        <v>338.1722376183965</v>
       </c>
       <c r="E40" t="n">
-        <v>211.5020259430747</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="F40" t="n">
-        <v>211.5020259430747</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G40" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H40" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I40" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J40" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K40" t="n">
         <v>92.71685897981521</v>
@@ -7356,28 +7356,28 @@
         <v>520.2893470405991</v>
       </c>
       <c r="R40" t="n">
-        <v>411.1248508126813</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S40" t="n">
-        <v>411.1248508126813</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T40" t="n">
-        <v>411.1248508126813</v>
+        <v>338.1722376183965</v>
       </c>
       <c r="U40" t="n">
-        <v>361.6186653554104</v>
+        <v>338.1722376183965</v>
       </c>
       <c r="V40" t="n">
-        <v>361.6186653554104</v>
+        <v>338.1722376183965</v>
       </c>
       <c r="W40" t="n">
-        <v>361.6186653554104</v>
+        <v>338.1722376183965</v>
       </c>
       <c r="X40" t="n">
-        <v>361.6186653554104</v>
+        <v>338.1722376183965</v>
       </c>
       <c r="Y40" t="n">
-        <v>361.6186653554104</v>
+        <v>338.1722376183965</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>770.5974120852552</v>
+        <v>1239.348663564705</v>
       </c>
       <c r="C41" t="n">
-        <v>401.6348951448435</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="D41" t="n">
-        <v>43.36919653809306</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="E41" t="n">
-        <v>43.36919653809306</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="F41" t="n">
-        <v>43.36919653809306</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="G41" t="n">
         <v>43.36919653809306</v>
@@ -7411,19 +7411,19 @@
         <v>43.36919653809306</v>
       </c>
       <c r="J41" t="n">
-        <v>152.5078184301904</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K41" t="n">
-        <v>366.8168396232721</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L41" t="n">
-        <v>669.5878927711869</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M41" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N41" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O41" t="n">
         <v>1761.960612545596</v>
@@ -7444,19 +7444,19 @@
         <v>2168.459826904653</v>
       </c>
       <c r="U41" t="n">
-        <v>1914.852662567162</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V41" t="n">
-        <v>1583.789775223591</v>
+        <v>2016.087835604638</v>
       </c>
       <c r="W41" t="n">
-        <v>1231.021119953477</v>
+        <v>2016.087835604638</v>
       </c>
       <c r="X41" t="n">
-        <v>1160.736744061067</v>
+        <v>2016.087835604638</v>
       </c>
       <c r="Y41" t="n">
-        <v>770.5974120852552</v>
+        <v>1625.948503628827</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>270.1985349902277</v>
+        <v>438.4138720102957</v>
       </c>
       <c r="C42" t="n">
-        <v>270.1985349902277</v>
+        <v>263.9608427291687</v>
       </c>
       <c r="D42" t="n">
-        <v>270.1985349902277</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="E42" t="n">
-        <v>110.9610799847722</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="F42" t="n">
-        <v>43.36919653809306</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G42" t="n">
         <v>43.36919653809306</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>190.2591440360034</v>
+        <v>361.542239439282</v>
       </c>
       <c r="C43" t="n">
-        <v>190.2591440360034</v>
+        <v>361.542239439282</v>
       </c>
       <c r="D43" t="n">
-        <v>190.2591440360034</v>
+        <v>361.542239439282</v>
       </c>
       <c r="E43" t="n">
-        <v>190.2591440360034</v>
+        <v>361.542239439282</v>
       </c>
       <c r="F43" t="n">
-        <v>43.36919653809306</v>
+        <v>361.542239439282</v>
       </c>
       <c r="G43" t="n">
-        <v>43.36919653809306</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="H43" t="n">
         <v>43.36919653809306</v>
@@ -7599,22 +7599,22 @@
         <v>520.2893470405991</v>
       </c>
       <c r="T43" t="n">
-        <v>296.6854897332227</v>
+        <v>361.542239439282</v>
       </c>
       <c r="U43" t="n">
-        <v>190.2591440360034</v>
+        <v>361.542239439282</v>
       </c>
       <c r="V43" t="n">
-        <v>190.2591440360034</v>
+        <v>361.542239439282</v>
       </c>
       <c r="W43" t="n">
-        <v>190.2591440360034</v>
+        <v>361.542239439282</v>
       </c>
       <c r="X43" t="n">
-        <v>190.2591440360034</v>
+        <v>361.542239439282</v>
       </c>
       <c r="Y43" t="n">
-        <v>190.2591440360034</v>
+        <v>361.542239439282</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>949.3392845809428</v>
+        <v>888.7124668435233</v>
       </c>
       <c r="C44" t="n">
-        <v>949.3392845809428</v>
+        <v>866.3762856997373</v>
       </c>
       <c r="D44" t="n">
-        <v>949.3392845809428</v>
+        <v>508.1105870929867</v>
       </c>
       <c r="E44" t="n">
-        <v>949.3392845809428</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="F44" t="n">
-        <v>538.3533797913353</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="G44" t="n">
         <v>122.3223344947425</v>
@@ -7645,13 +7645,13 @@
         <v>122.3223344947425</v>
       </c>
       <c r="I44" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J44" t="n">
-        <v>152.50781843019</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K44" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L44" t="n">
         <v>669.5878927711866</v>
@@ -7663,37 +7663,37 @@
         <v>1417.286540135166</v>
       </c>
       <c r="O44" t="n">
-        <v>1761.960612545595</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P44" t="n">
-        <v>2021.630958172446</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q44" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R44" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S44" t="n">
-        <v>2036.325171642783</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T44" t="n">
-        <v>1826.151173794698</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="U44" t="n">
-        <v>1826.151173794698</v>
+        <v>1572.544009457208</v>
       </c>
       <c r="V44" t="n">
-        <v>1826.151173794698</v>
+        <v>1241.481122113637</v>
       </c>
       <c r="W44" t="n">
-        <v>1473.382518524584</v>
+        <v>888.7124668435233</v>
       </c>
       <c r="X44" t="n">
-        <v>1099.916760263505</v>
+        <v>888.7124668435233</v>
       </c>
       <c r="Y44" t="n">
-        <v>949.3392845809428</v>
+        <v>888.7124668435233</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>782.2886830373634</v>
+        <v>349.1412095166636</v>
       </c>
       <c r="C45" t="n">
-        <v>607.8356537562364</v>
+        <v>349.1412095166636</v>
       </c>
       <c r="D45" t="n">
-        <v>458.9012440949851</v>
+        <v>349.1412095166636</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9012440949851</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3666861218701</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G45" t="n">
-        <v>175.490692336986</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H45" t="n">
-        <v>80.03532540581917</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I45" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J45" t="n">
         <v>89.55356510562316</v>
@@ -7757,22 +7757,22 @@
         <v>1766.227047333487</v>
       </c>
       <c r="T45" t="n">
-        <v>1766.227047333487</v>
+        <v>1650.459400333898</v>
       </c>
       <c r="U45" t="n">
-        <v>1647.744985222909</v>
+        <v>1422.357810467163</v>
       </c>
       <c r="V45" t="n">
-        <v>1412.592876991166</v>
+        <v>1187.20570223542</v>
       </c>
       <c r="W45" t="n">
-        <v>1158.355520262964</v>
+        <v>932.9683455072184</v>
       </c>
       <c r="X45" t="n">
-        <v>950.5040200574315</v>
+        <v>725.1168453016855</v>
       </c>
       <c r="Y45" t="n">
-        <v>950.5040200574315</v>
+        <v>517.3565465367317</v>
       </c>
     </row>
     <row r="46">
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>43.36919653809305</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="C46" t="n">
-        <v>43.36919653809305</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="D46" t="n">
-        <v>43.36919653809305</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="E46" t="n">
-        <v>43.36919653809305</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="F46" t="n">
-        <v>43.36919653809305</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="G46" t="n">
-        <v>43.36919653809305</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="H46" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I46" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J46" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K46" t="n">
         <v>92.71685897981521</v>
@@ -7836,22 +7836,22 @@
         <v>520.2893470405991</v>
       </c>
       <c r="T46" t="n">
-        <v>296.6854897332227</v>
+        <v>448.0938982401873</v>
       </c>
       <c r="U46" t="n">
-        <v>296.6854897332227</v>
+        <v>448.0938982401873</v>
       </c>
       <c r="V46" t="n">
-        <v>296.6854897332227</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="W46" t="n">
-        <v>43.36919653809305</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="X46" t="n">
-        <v>43.36919653809305</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="Y46" t="n">
-        <v>43.36919653809305</v>
+        <v>193.4094100343004</v>
       </c>
     </row>
   </sheetData>
@@ -22549,7 +22549,7 @@
         <v>332.938834636356</v>
       </c>
       <c r="C2" t="n">
-        <v>315.4778847438829</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22561,7 +22561,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.8590644497427</v>
+        <v>413.707320657778</v>
       </c>
       <c r="H2" t="n">
         <v>323.1357392253592</v>
@@ -22600,10 +22600,10 @@
         <v>172.6645079492214</v>
       </c>
       <c r="T2" t="n">
-        <v>216.1119122710508</v>
+        <v>214.2636560630155</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2180195592479</v>
+        <v>201.4230125321233</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22628,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>122.9134919611911</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22649,7 +22649,7 @@
         <v>70.13228042782632</v>
       </c>
       <c r="J3" t="n">
-        <v>46.18894706358476</v>
+        <v>33.34701680106493</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22670,7 +22670,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>31.01751192697151</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>92.6799817290989</v>
@@ -22691,10 +22691,10 @@
         <v>201.899976133795</v>
       </c>
       <c r="X3" t="n">
-        <v>155.9779781763528</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>161.823253587813</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>309.2694399267532</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22795,22 +22795,22 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>399.9546597914277</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.6947334417681</v>
+        <v>376.0024453885826</v>
       </c>
       <c r="H5" t="n">
-        <v>323.0068303993971</v>
+        <v>321.7552365603931</v>
       </c>
       <c r="I5" t="n">
-        <v>148.4833125319238</v>
+        <v>143.7717713159392</v>
       </c>
       <c r="J5" t="n">
-        <v>44.56856880475192</v>
+        <v>34.19605933636038</v>
       </c>
       <c r="K5" t="n">
-        <v>15.54570289742017</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -22828,19 +22828,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>35.46192228085542</v>
       </c>
       <c r="R5" t="n">
-        <v>62.57153992015645</v>
+        <v>106.8999125420449</v>
       </c>
       <c r="S5" t="n">
-        <v>172.3776767643943</v>
+        <v>169.5927926334236</v>
       </c>
       <c r="T5" t="n">
-        <v>164.0515997126328</v>
+        <v>142.0574311576957</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2170125819671</v>
+        <v>177.7428339618397</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22865,28 +22865,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>99.24409725158833</v>
       </c>
       <c r="D6" t="n">
-        <v>95.43985354430433</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>129.420848093882</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>84.47794711437611</v>
+        <v>93.52134518602993</v>
       </c>
       <c r="H6" t="n">
-        <v>103.9261969612455</v>
+        <v>103.294680046134</v>
       </c>
       <c r="I6" t="n">
-        <v>69.90040401874651</v>
+        <v>67.64908349938912</v>
       </c>
       <c r="J6" t="n">
-        <v>45.55266047403215</v>
+        <v>39.37486489346175</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>92.26183619445767</v>
+        <v>88.20200265662029</v>
       </c>
       <c r="S6" t="n">
-        <v>103.6971860541265</v>
+        <v>154.4878321636994</v>
       </c>
       <c r="T6" t="n">
-        <v>196.6968820799462</v>
+        <v>122.9689181066214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8847795790998</v>
+        <v>225.8804776927571</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22928,7 +22928,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>132.3085834667501</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22956,49 +22956,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2696840886636</v>
+        <v>167.2148644222634</v>
       </c>
       <c r="H7" t="n">
-        <v>155.814201835988</v>
+        <v>155.3268051656304</v>
       </c>
       <c r="I7" t="n">
-        <v>133.7591589956</v>
+        <v>132.1105821187667</v>
       </c>
       <c r="J7" t="n">
-        <v>75.99984586487786</v>
+        <v>72.12409545038793</v>
       </c>
       <c r="K7" t="n">
-        <v>45.21186227978788</v>
+        <v>38.84281376529884</v>
       </c>
       <c r="L7" t="n">
-        <v>27.64774135187326</v>
+        <v>19.49755203998329</v>
       </c>
       <c r="M7" t="n">
-        <v>25.85947179235004</v>
+        <v>17.2662399038262</v>
       </c>
       <c r="N7" t="n">
-        <v>17.30769649739644</v>
+        <v>8.918792456364031</v>
       </c>
       <c r="O7" t="n">
-        <v>36.50473068115869</v>
+        <v>28.75622001580066</v>
       </c>
       <c r="P7" t="n">
-        <v>50.49061978228498</v>
+        <v>43.86043031148982</v>
       </c>
       <c r="Q7" t="n">
-        <v>91.10635862868878</v>
+        <v>86.51595910858246</v>
       </c>
       <c r="R7" t="n">
-        <v>144.8613331552887</v>
+        <v>142.3964416096969</v>
       </c>
       <c r="S7" t="n">
-        <v>211.4463886533601</v>
+        <v>210.4910313761868</v>
       </c>
       <c r="T7" t="n">
-        <v>224.8636914573385</v>
+        <v>224.6294619736288</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2796859781384</v>
+        <v>286.2766958145166</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23020,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>270.621181538557</v>
       </c>
       <c r="C8" t="n">
-        <v>253.160231646084</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>242.5703814957594</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>269.8177099473382</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23065,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.61164031771685</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>95.35315165846212</v>
@@ -23077,7 +23077,7 @@
         <v>214.7171693596231</v>
       </c>
       <c r="U8" t="n">
-        <v>171.0384309256168</v>
+        <v>251.1925302541847</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>321.6954796452025</v>
       </c>
     </row>
     <row r="9">
@@ -23102,10 +23102,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>60.59583886339215</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>35.33240543971516</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23117,13 +23117,13 @@
         <v>136.3194191323308</v>
       </c>
       <c r="H9" t="n">
-        <v>102.3448132540521</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>64.26286446312979</v>
       </c>
       <c r="J9" t="n">
-        <v>13.42958288945708</v>
+        <v>30.08282103867674</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23144,25 +23144,25 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.256558775821446</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.09559288881303</v>
       </c>
       <c r="S9" t="n">
         <v>152.6609993460486</v>
       </c>
       <c r="T9" t="n">
-        <v>196.0368949650912</v>
+        <v>83.9242348401676</v>
       </c>
       <c r="U9" t="n">
-        <v>113.7613470855986</v>
+        <v>225.8740072105222</v>
       </c>
       <c r="V9" t="n">
-        <v>120.6879270245017</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>152.4348640278369</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>104.9926908863931</v>
+        <v>117.9410675793365</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>100.4801176868635</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>89.89026753653889</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>148.7008946589478</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>135.0444808416386</v>
+        <v>412.8304410053316</v>
       </c>
       <c r="H11" t="n">
-        <v>313.696491354169</v>
+        <v>314.1553954847428</v>
       </c>
       <c r="I11" t="n">
-        <v>113.4351644991</v>
+        <v>115.1626783762094</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>57.47038454883358</v>
+        <v>60.28514218019274</v>
       </c>
       <c r="S11" t="n">
-        <v>151.6615189718265</v>
+        <v>152.6826128690998</v>
       </c>
       <c r="T11" t="n">
-        <v>212.0772185026012</v>
+        <v>212.2733715924669</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.1478691870522</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23323,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>98.49982873304668</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23345,22 +23345,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>135.9967467772216</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>99.22847761391854</v>
+        <v>99.4600269487271</v>
       </c>
       <c r="I12" t="n">
-        <v>53.15331188590523</v>
+        <v>53.97877159446438</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1.86248416174405</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>62.06160227948932</v>
+        <v>63.55016376157384</v>
       </c>
       <c r="S12" t="n">
-        <v>146.6675018728581</v>
+        <v>147.112829499068</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>194.8329355579188</v>
       </c>
       <c r="U12" t="n">
-        <v>197.0924523831852</v>
+        <v>225.8543560776521</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>146.9274916177645</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23430,19 +23430,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.861892307795</v>
+        <v>166.881992256008</v>
       </c>
       <c r="H13" t="n">
-        <v>152.1885621842654</v>
+        <v>152.3672689965592</v>
       </c>
       <c r="I13" t="n">
-        <v>121.4957479854788</v>
+        <v>122.1002082462846</v>
       </c>
       <c r="J13" t="n">
-        <v>47.16896695746777</v>
+        <v>48.59003329612757</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.1691202676201442</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,28 +23457,28 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.170057485231666</v>
+        <v>3.60105485819426</v>
       </c>
       <c r="Q13" t="n">
-        <v>56.95935777795529</v>
+        <v>58.64245435059196</v>
       </c>
       <c r="R13" t="n">
-        <v>126.5255318082332</v>
+        <v>127.4292985706109</v>
       </c>
       <c r="S13" t="n">
-        <v>204.3396900722228</v>
+        <v>204.689977351535</v>
       </c>
       <c r="T13" t="n">
-        <v>223.1213083936272</v>
+        <v>223.2071899905374</v>
       </c>
       <c r="U13" t="n">
-        <v>286.257442790091</v>
+        <v>286.2585391509027</v>
       </c>
       <c r="V13" t="n">
-        <v>115.4725011827482</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>163.7969140585363</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>362.4721212994592</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>76.94189084359539</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>104.1892192951742</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>412.7856316187261</v>
+        <v>148.0376669211876</v>
       </c>
       <c r="H14" t="n">
-        <v>313.696491354169</v>
+        <v>314.1553954847428</v>
       </c>
       <c r="I14" t="n">
-        <v>113.4351644991</v>
+        <v>115.1626783762094</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>57.47038454883358</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.0772185026012</v>
+        <v>212.2733715924669</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1442844361238</v>
+        <v>251.1478691870522</v>
       </c>
       <c r="V14" t="n">
-        <v>234.7793718375026</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>104.938326594325</v>
       </c>
       <c r="Y14" t="n">
-        <v>108.496787878966</v>
+        <v>121.4451645719095</v>
       </c>
     </row>
     <row r="15">
@@ -23573,31 +23573,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.0207219127059</v>
       </c>
       <c r="H15" t="n">
-        <v>99.22847761391854</v>
+        <v>99.4600269487271</v>
       </c>
       <c r="I15" t="n">
-        <v>53.15331188590523</v>
+        <v>53.97877159446438</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1.86248416174405</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>62.06160227948932</v>
+        <v>63.55016376157384</v>
       </c>
       <c r="S15" t="n">
-        <v>146.6675018728581</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>194.7362989372607</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8527787661071</v>
+        <v>225.8543560776521</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>53.21432213182703</v>
       </c>
       <c r="W15" t="n">
-        <v>112.3794350023313</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23661,25 +23661,25 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>9.768820505489344</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.861892307795</v>
+        <v>166.881992256008</v>
       </c>
       <c r="H16" t="n">
-        <v>152.1885621842654</v>
+        <v>152.3672689965592</v>
       </c>
       <c r="I16" t="n">
-        <v>121.4957479854788</v>
+        <v>122.1002082462846</v>
       </c>
       <c r="J16" t="n">
-        <v>47.16896695746777</v>
+        <v>48.59003329612757</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>0.1691202676201442</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,22 +23694,22 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.170057485231666</v>
+        <v>3.60105485819426</v>
       </c>
       <c r="Q16" t="n">
-        <v>56.95935777795529</v>
+        <v>58.64245435059196</v>
       </c>
       <c r="R16" t="n">
-        <v>126.5255318082332</v>
+        <v>127.4292985706109</v>
       </c>
       <c r="S16" t="n">
-        <v>204.3396900722228</v>
+        <v>204.689977351535</v>
       </c>
       <c r="T16" t="n">
-        <v>223.1213083936272</v>
+        <v>100.4811057124827</v>
       </c>
       <c r="U16" t="n">
-        <v>286.257442790091</v>
+        <v>286.2585391509027</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23734,25 +23734,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>87.53174099391998</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>380.2467011782741</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>129.1348949646239</v>
+        <v>142.0832716575674</v>
       </c>
       <c r="G17" t="n">
-        <v>412.7856316187261</v>
+        <v>412.8304410053316</v>
       </c>
       <c r="H17" t="n">
-        <v>313.696491354169</v>
+        <v>49.36262140059875</v>
       </c>
       <c r="I17" t="n">
-        <v>113.4351644991</v>
+        <v>115.1626783762094</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,10 +23779,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>60.28514218019274</v>
       </c>
       <c r="S17" t="n">
-        <v>151.6615189718265</v>
+        <v>152.6826128690998</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23791,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>293.1512497521958</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23810,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>11.24425664039094</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23825,16 +23825,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.9967467772216</v>
+        <v>136.0207219127059</v>
       </c>
       <c r="H18" t="n">
-        <v>99.22847761391854</v>
+        <v>99.4600269487271</v>
       </c>
       <c r="I18" t="n">
-        <v>53.15331188590523</v>
+        <v>53.97877159446438</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1.86248416174405</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>62.06160227948932</v>
+        <v>63.55016376157384</v>
       </c>
       <c r="S18" t="n">
-        <v>146.6675018728581</v>
+        <v>147.112829499068</v>
       </c>
       <c r="T18" t="n">
-        <v>194.7362989372607</v>
+        <v>194.8329355579188</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.8543560776521</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>131.6123412500885</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23904,19 +23904,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.861892307795</v>
+        <v>166.881992256008</v>
       </c>
       <c r="H19" t="n">
-        <v>152.1885621842654</v>
+        <v>152.3672689965592</v>
       </c>
       <c r="I19" t="n">
-        <v>121.4957479854788</v>
+        <v>122.1002082462846</v>
       </c>
       <c r="J19" t="n">
-        <v>47.16896695746777</v>
+        <v>48.59003329612757</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>0.1691202676201442</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23931,22 +23931,22 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.170057485231666</v>
+        <v>3.60105485819426</v>
       </c>
       <c r="Q19" t="n">
-        <v>56.95935777795529</v>
+        <v>58.64245435059196</v>
       </c>
       <c r="R19" t="n">
-        <v>126.5255318082332</v>
+        <v>127.4292985706109</v>
       </c>
       <c r="S19" t="n">
-        <v>204.3396900722228</v>
+        <v>204.689977351535</v>
       </c>
       <c r="T19" t="n">
-        <v>86.45616625254738</v>
+        <v>100.4811057124827</v>
       </c>
       <c r="U19" t="n">
-        <v>286.257442790091</v>
+        <v>286.2585391509027</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23971,10 +23971,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>87.53174099391998</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>261.7101549880506</v>
+        <v>89.89026753653889</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23983,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>412.7856316187261</v>
+        <v>412.8304410053316</v>
       </c>
       <c r="H20" t="n">
-        <v>35.95534057708147</v>
+        <v>49.36262140059875</v>
       </c>
       <c r="I20" t="n">
-        <v>113.4351644991</v>
+        <v>115.1626783762094</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>57.47038454883355</v>
+        <v>60.28514218019274</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>152.6826128690998</v>
       </c>
       <c r="T20" t="n">
-        <v>212.0772185026012</v>
+        <v>212.2733715924669</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1442844361238</v>
+        <v>251.1478691870522</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>94.52278305682091</v>
       </c>
       <c r="W20" t="n">
-        <v>71.49981794032544</v>
+        <v>84.44819463326894</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24047,31 +24047,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>40.21986497265335</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>138.5236824296722</v>
       </c>
       <c r="G21" t="n">
-        <v>135.9967467772216</v>
+        <v>136.0207219127059</v>
       </c>
       <c r="H21" t="n">
-        <v>99.22847761391854</v>
+        <v>99.4600269487271</v>
       </c>
       <c r="I21" t="n">
-        <v>53.15331188590521</v>
+        <v>53.97877159446438</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1.86248416174405</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>62.06160227948931</v>
+        <v>63.55016376157384</v>
       </c>
       <c r="S21" t="n">
-        <v>146.6675018728581</v>
+        <v>147.112829499068</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8527787661071</v>
+        <v>225.8543560776521</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24141,19 +24141,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.861892307795</v>
+        <v>166.881992256008</v>
       </c>
       <c r="H22" t="n">
-        <v>152.1885621842654</v>
+        <v>152.3672689965592</v>
       </c>
       <c r="I22" t="n">
-        <v>121.4957479854788</v>
+        <v>122.1002082462846</v>
       </c>
       <c r="J22" t="n">
-        <v>47.16896695746776</v>
+        <v>48.59003329612757</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.1691202676201442</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24168,25 +24168,25 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.170057485231638</v>
+        <v>3.60105485819426</v>
       </c>
       <c r="Q22" t="n">
-        <v>56.95935777795528</v>
+        <v>58.64245435059196</v>
       </c>
       <c r="R22" t="n">
-        <v>126.5255318082332</v>
+        <v>127.4292985706109</v>
       </c>
       <c r="S22" t="n">
-        <v>204.3396900722228</v>
+        <v>204.689977351535</v>
       </c>
       <c r="T22" t="n">
-        <v>223.1213083936272</v>
+        <v>100.4811057124827</v>
       </c>
       <c r="U22" t="n">
-        <v>286.257442790091</v>
+        <v>286.2585391509027</v>
       </c>
       <c r="V22" t="n">
-        <v>115.472501182748</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24226,7 +24226,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>104.6810302145632</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>294.4801326218023</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24284,28 +24284,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>45.35895830320365</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24341,19 +24341,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>137.8854840205663</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>20.34890030601548</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4515011109318</v>
@@ -24420,13 +24420,13 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2350578157167</v>
+        <v>100.6071071548267</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24448,22 +24448,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.8707348436268</v>
+        <v>118.4654384676036</v>
       </c>
       <c r="H26" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,10 +24499,10 @@
         <v>208.0722578696039</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V26" t="n">
-        <v>29.22018152925449</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24521,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24536,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>74.76658457327133</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I27" t="n">
-        <v>6.628331764963072</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24575,7 +24575,7 @@
         <v>137.5750138932992</v>
       </c>
       <c r="T27" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>135.5663557888597</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U28" t="n">
-        <v>246.028155177758</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>58.08318714194388</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>411.8707348436268</v>
@@ -24736,7 +24736,7 @@
         <v>208.0722578696039</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>25.72481851535542</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24758,19 +24758,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>84.32856311961996</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>135.5072338470353</v>
@@ -24779,7 +24779,7 @@
         <v>94.50081326185514</v>
       </c>
       <c r="I30" t="n">
-        <v>36.29946757904885</v>
+        <v>16.02248763434259</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24812,10 +24812,10 @@
         <v>137.5750138932992</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24849,13 +24849,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4515011109318</v>
       </c>
       <c r="H31" t="n">
-        <v>148.5398113612452</v>
+        <v>77.58866128000422</v>
       </c>
       <c r="I31" t="n">
         <v>109.1541654470835</v>
@@ -24891,16 +24891,16 @@
         <v>197.1876907596159</v>
       </c>
       <c r="T31" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>246.028155177758</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I32" t="n">
         <v>78.16360657708299</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0710926941158</v>
+        <v>100.3734616307714</v>
       </c>
       <c r="V32" t="n">
-        <v>40.5547279482995</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24995,25 +24995,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>86.70441629087483</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I33" t="n">
         <v>36.29946757904885</v>
@@ -25046,7 +25046,7 @@
         <v>31.66886087721431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25055,7 +25055,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>229.8535981152947</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>134.2530241998483</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H34" t="n">
         <v>148.5398113612452</v>
@@ -25128,22 +25128,22 @@
         <v>197.1876907596159</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2350578157167</v>
+        <v>100.6071071548267</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>139.6470035116562</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.0710926941158</v>
@@ -25216,13 +25216,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>235.5403075927092</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25232,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>19.85966804538231</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -25244,10 +25244,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>39.01041037349482</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>94.50081326185514</v>
@@ -25280,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25359,7 +25359,7 @@
         <v>22.59469128425553</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S37" t="n">
         <v>197.1876907596159</v>
@@ -25368,10 +25368,10 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U37" t="n">
-        <v>70.77243310208672</v>
+        <v>66.22175214206376</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25393,19 +25393,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>38.72755950036594</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H38" t="n">
         <v>304.326804756183</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.20041909065029</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25472,25 +25472,25 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>94.50081326185514</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,10 +25520,10 @@
         <v>31.66886087721431</v>
       </c>
       <c r="S39" t="n">
-        <v>122.0219353930505</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25532,7 +25532,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>20.89726331744302</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25554,16 +25554,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H40" t="n">
         <v>148.5398113612452</v>
@@ -25596,16 +25596,16 @@
         <v>22.59469128425553</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S40" t="n">
         <v>197.1876907596159</v>
       </c>
       <c r="T40" t="n">
-        <v>221.3678187343026</v>
+        <v>41.07188040632212</v>
       </c>
       <c r="U40" t="n">
-        <v>237.2239342130185</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>304.326804756183</v>
@@ -25684,16 +25684,16 @@
         <v>208.0722578696039</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>176.9039870831207</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>300.1495685449829</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25706,22 +25706,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>64.56656968250914</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>78.15324778117154</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>94.50081326185514</v>
@@ -25797,13 +25797,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>109.1541654470835</v>
@@ -25839,10 +25839,10 @@
         <v>197.1876907596159</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>64.20818220899869</v>
       </c>
       <c r="U43" t="n">
-        <v>180.8729755754696</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25867,19 +25867,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>343.1600724386594</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H44" t="n">
         <v>304.326804756183</v>
@@ -25921,19 +25921,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>237.1662377303175</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25946,25 +25946,25 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25997,10 +25997,10 @@
         <v>137.5750138932992</v>
       </c>
       <c r="T45" t="n">
-        <v>192.7632183107638</v>
+        <v>78.15324778117153</v>
       </c>
       <c r="U45" t="n">
-        <v>108.5233324785963</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26040,7 +26040,7 @@
         <v>166.4515011109318</v>
       </c>
       <c r="H46" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>109.1541654470835</v>
@@ -26076,16 +26076,16 @@
         <v>197.1876907596159</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>149.894324421895</v>
       </c>
       <c r="U46" t="n">
         <v>286.2350578157167</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>35.73986807341271</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>292902.8048010012</v>
+        <v>315266.484233189</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>350749.4278478484</v>
+        <v>350749.4278478483</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>465398.3774279361</v>
+        <v>457199.9378709662</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>465398.3774279361</v>
+        <v>457199.9378709663</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>465398.3774279359</v>
+        <v>457199.9378709661</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>465398.3774279361</v>
+        <v>457199.9378709662</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>632720.5423917632</v>
+        <v>632720.5423917631</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>632720.5423917632</v>
+        <v>632720.5423917633</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>632720.5423917633</v>
+        <v>632720.5423917631</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>632720.5423917632</v>
+        <v>632720.542391763</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>632720.5423917633</v>
+        <v>632720.5423917632</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>632720.5423917633</v>
+        <v>632720.5423917632</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>632720.542391763</v>
+        <v>632720.5423917631</v>
       </c>
     </row>
   </sheetData>
@@ -26316,31 +26316,31 @@
         <v>124541.1123864281</v>
       </c>
       <c r="C2" t="n">
-        <v>125529.7734861432</v>
+        <v>135114.2075285094</v>
       </c>
       <c r="D2" t="n">
-        <v>150321.1833633635</v>
+        <v>150321.1833633634</v>
       </c>
       <c r="E2" t="n">
-        <v>199456.4474691154</v>
+        <v>195942.8305161284</v>
       </c>
       <c r="F2" t="n">
-        <v>199456.4474691154</v>
+        <v>195942.8305161284</v>
       </c>
       <c r="G2" t="n">
-        <v>199456.4474691154</v>
+        <v>195942.8305161284</v>
       </c>
       <c r="H2" t="n">
-        <v>199456.4474691154</v>
+        <v>195942.8305161284</v>
       </c>
       <c r="I2" t="n">
         <v>271165.9467393269</v>
       </c>
       <c r="J2" t="n">
+        <v>271165.946739327</v>
+      </c>
+      <c r="K2" t="n">
         <v>271165.9467393269</v>
-      </c>
-      <c r="K2" t="n">
-        <v>271165.946739327</v>
       </c>
       <c r="L2" t="n">
         <v>271165.9467393269</v>
@@ -26349,13 +26349,13 @@
         <v>271165.9467393269</v>
       </c>
       <c r="N2" t="n">
-        <v>271165.9467393269</v>
+        <v>271165.946739327</v>
       </c>
       <c r="O2" t="n">
         <v>271165.9467393269</v>
       </c>
       <c r="P2" t="n">
-        <v>271165.9467393268</v>
+        <v>271165.9467393269</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>399106.8526518422</v>
       </c>
       <c r="C3" t="n">
-        <v>3565.211031542055</v>
+        <v>38180.34408023355</v>
       </c>
       <c r="D3" t="n">
-        <v>83865.46793011691</v>
+        <v>51164.6169502864</v>
       </c>
       <c r="E3" t="n">
-        <v>169974.9947093551</v>
+        <v>157153.8953809041</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>241613.5954508966</v>
+        <v>253447.2331927436</v>
       </c>
       <c r="J3" t="n">
         <v>13028.56481860499</v>
       </c>
       <c r="K3" t="n">
-        <v>568.8360386924197</v>
+        <v>6091.744777620991</v>
       </c>
       <c r="L3" t="n">
-        <v>15212.6541482386</v>
+        <v>9781.526363726953</v>
       </c>
       <c r="M3" t="n">
-        <v>41275.28238448186</v>
+        <v>38048.49511909354</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>30.96378040239005</v>
       </c>
       <c r="C4" t="n">
-        <v>32.53856901697746</v>
+        <v>49.92675977318713</v>
       </c>
       <c r="D4" t="n">
         <v>81.37067654131204</v>
       </c>
       <c r="E4" t="n">
-        <v>198.9691130374102</v>
+        <v>190.1009848322025</v>
       </c>
       <c r="F4" t="n">
-        <v>198.9691130374102</v>
+        <v>190.1009848322025</v>
       </c>
       <c r="G4" t="n">
-        <v>198.9691130374102</v>
+        <v>190.1009848322025</v>
       </c>
       <c r="H4" t="n">
-        <v>198.9691130374103</v>
+        <v>190.1009848322025</v>
       </c>
       <c r="I4" t="n">
         <v>384.3219252469136</v>
@@ -26472,22 +26472,22 @@
         <v>45306.68319048216</v>
       </c>
       <c r="C5" t="n">
-        <v>45509.32097968736</v>
+        <v>47476.75964516138</v>
       </c>
       <c r="D5" t="n">
         <v>50823.3731117227</v>
       </c>
       <c r="E5" t="n">
-        <v>30536.29796699854</v>
+        <v>29506.04656285248</v>
       </c>
       <c r="F5" t="n">
-        <v>30536.29796699854</v>
+        <v>29506.04656285248</v>
       </c>
       <c r="G5" t="n">
-        <v>30536.29796699854</v>
+        <v>29506.04656285248</v>
       </c>
       <c r="H5" t="n">
-        <v>30536.29796699854</v>
+        <v>29506.04656285248</v>
       </c>
       <c r="I5" t="n">
         <v>51571.48185587223</v>
@@ -26496,7 +26496,7 @@
         <v>51571.48185587223</v>
       </c>
       <c r="K5" t="n">
-        <v>51571.48185587223</v>
+        <v>51571.48185587222</v>
       </c>
       <c r="L5" t="n">
         <v>51571.48185587223</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-334498.9023216473</v>
+        <v>-321362.9387448335</v>
       </c>
       <c r="C6" t="n">
-        <v>61874.26692053463</v>
+        <v>47997.97360691162</v>
       </c>
       <c r="D6" t="n">
-        <v>2183.07898710709</v>
+        <v>46915.03335902547</v>
       </c>
       <c r="E6" t="n">
-        <v>-12281.93249692484</v>
+        <v>7973.244260574772</v>
       </c>
       <c r="F6" t="n">
-        <v>157693.0622124303</v>
+        <v>165127.1396414788</v>
       </c>
       <c r="G6" t="n">
-        <v>157693.0622124303</v>
+        <v>165127.1396414788</v>
       </c>
       <c r="H6" t="n">
-        <v>157693.0622124303</v>
+        <v>165127.1396414788</v>
       </c>
       <c r="I6" t="n">
-        <v>-30016.83260885173</v>
+        <v>-34998.42824615207</v>
       </c>
       <c r="J6" t="n">
-        <v>198568.1980234399</v>
+        <v>205420.2401279866</v>
       </c>
       <c r="K6" t="n">
-        <v>211027.9268033525</v>
+        <v>212357.0601689705</v>
       </c>
       <c r="L6" t="n">
-        <v>196384.1086938062</v>
+        <v>208667.2785828646</v>
       </c>
       <c r="M6" t="n">
-        <v>170321.480457563</v>
+        <v>180400.3098274979</v>
       </c>
       <c r="N6" t="n">
-        <v>211596.7628420448</v>
+        <v>218448.8049465916</v>
       </c>
       <c r="O6" t="n">
-        <v>211596.7628420448</v>
+        <v>218448.8049465915</v>
       </c>
       <c r="P6" t="n">
-        <v>211596.7628420447</v>
+        <v>218448.8049465915</v>
       </c>
     </row>
   </sheetData>
@@ -26740,22 +26740,22 @@
         <v>396.859943267568</v>
       </c>
       <c r="C3" t="n">
-        <v>399.9910132500468</v>
+        <v>430.3910100719429</v>
       </c>
       <c r="D3" t="n">
         <v>476.1157511985021</v>
       </c>
       <c r="E3" t="n">
-        <v>626.1300917317255</v>
+        <v>614.9837568136019</v>
       </c>
       <c r="F3" t="n">
-        <v>626.1300917317255</v>
+        <v>614.9837568136019</v>
       </c>
       <c r="G3" t="n">
-        <v>626.1300917317255</v>
+        <v>614.9837568136019</v>
       </c>
       <c r="H3" t="n">
-        <v>626.1300917317257</v>
+        <v>614.9837568136019</v>
       </c>
       <c r="I3" t="n">
         <v>853.7106645376841</v>
@@ -26792,22 +26792,22 @@
         <v>49.79500702712463</v>
       </c>
       <c r="C4" t="n">
-        <v>52.00521202033443</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="D4" t="n">
         <v>112.1126601249236</v>
       </c>
       <c r="E4" t="n">
-        <v>277.7411507770875</v>
+        <v>264.7927740841441</v>
       </c>
       <c r="F4" t="n">
-        <v>277.7411507770876</v>
+        <v>264.7927740841441</v>
       </c>
       <c r="G4" t="n">
-        <v>277.7411507770876</v>
+        <v>264.7927740841441</v>
       </c>
       <c r="H4" t="n">
-        <v>277.7411507770876</v>
+        <v>264.7927740841441</v>
       </c>
       <c r="I4" t="n">
         <v>542.1149567261632</v>
@@ -26816,7 +26816,7 @@
         <v>542.1149567261632</v>
       </c>
       <c r="K4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.114956726163</v>
       </c>
       <c r="L4" t="n">
         <v>542.1149567261632</v>
@@ -26825,13 +26825,13 @@
         <v>542.1149567261632</v>
       </c>
       <c r="N4" t="n">
-        <v>542.1149567261631</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="O4" t="n">
         <v>542.1149567261632</v>
       </c>
       <c r="P4" t="n">
-        <v>542.1149567261631</v>
+        <v>542.1149567261632</v>
       </c>
     </row>
   </sheetData>
@@ -26962,13 +26962,13 @@
         <v>396.859943267568</v>
       </c>
       <c r="C3" t="n">
-        <v>3.131069982478778</v>
+        <v>33.53106680437492</v>
       </c>
       <c r="D3" t="n">
-        <v>76.12473794845528</v>
+        <v>45.72474112655914</v>
       </c>
       <c r="E3" t="n">
-        <v>150.0143405332234</v>
+        <v>138.8680056150998</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>227.5805728059585</v>
+        <v>238.7269077240823</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>49.79500702712463</v>
       </c>
       <c r="C4" t="n">
-        <v>2.2102049932098</v>
+        <v>23.66939470960278</v>
       </c>
       <c r="D4" t="n">
-        <v>60.10744810458917</v>
+        <v>38.64825838819618</v>
       </c>
       <c r="E4" t="n">
-        <v>165.6284906521639</v>
+        <v>152.6801139592203</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>264.3738059490756</v>
+        <v>277.3221826420191</v>
       </c>
       <c r="J4" t="n">
         <v>49.7950070271246</v>
       </c>
       <c r="K4" t="n">
-        <v>2.2102049932098</v>
+        <v>23.66939470960256</v>
       </c>
       <c r="L4" t="n">
-        <v>60.10744810458925</v>
+        <v>38.64825838819615</v>
       </c>
       <c r="M4" t="n">
-        <v>165.6284906521639</v>
+        <v>152.6801139592203</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>49.79500702712463</v>
       </c>
       <c r="K4" t="n">
-        <v>2.2102049932098</v>
+        <v>23.66939470960278</v>
       </c>
       <c r="L4" t="n">
-        <v>60.10744810458917</v>
+        <v>38.64825838819618</v>
       </c>
       <c r="M4" t="n">
-        <v>165.6284906521639</v>
+        <v>152.6801139592203</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31138,7 +31138,7 @@
         <v>185.3448253911411</v>
       </c>
       <c r="M3" t="n">
-        <v>191.9290409491429</v>
+        <v>163.8914845489273</v>
       </c>
       <c r="N3" t="n">
         <v>181.1367191104579</v>
@@ -31147,7 +31147,7 @@
         <v>192.3912514715691</v>
       </c>
       <c r="P3" t="n">
-        <v>134.9670493543445</v>
+        <v>163.0046057545602</v>
       </c>
       <c r="Q3" t="n">
         <v>108.96426215905</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.608004073367021</v>
+        <v>1.730215115867106</v>
       </c>
       <c r="H5" t="n">
-        <v>16.46797171637001</v>
+        <v>17.719565555374</v>
       </c>
       <c r="I5" t="n">
-        <v>61.99257703848215</v>
+        <v>66.70411825446666</v>
       </c>
       <c r="J5" t="n">
-        <v>136.4773357219344</v>
+        <v>146.8498451903259</v>
       </c>
       <c r="K5" t="n">
-        <v>204.5441481475604</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>253.7551028078664</v>
+        <v>273.0409218971986</v>
       </c>
       <c r="M5" t="n">
-        <v>282.3514452476072</v>
+        <v>303.8106349640001</v>
       </c>
       <c r="N5" t="n">
-        <v>281.4182756169254</v>
+        <v>302.8774653333184</v>
       </c>
       <c r="O5" t="n">
-        <v>270.9305963165179</v>
+        <v>291.5217821035541</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>248.8070964305848</v>
       </c>
       <c r="Q5" t="n">
-        <v>173.646349877813</v>
+        <v>186.8437675935941</v>
       </c>
       <c r="R5" t="n">
-        <v>101.0087858736412</v>
+        <v>108.6856252720872</v>
       </c>
       <c r="S5" t="n">
-        <v>36.64239282185103</v>
+        <v>39.42727695282172</v>
       </c>
       <c r="T5" t="n">
-        <v>7.039037831164139</v>
+        <v>7.57401666970826</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1286403258693617</v>
+        <v>0.1384172092693684</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8603580285001008</v>
+        <v>0.9257467009094621</v>
       </c>
       <c r="H6" t="n">
-        <v>8.309247275250975</v>
+        <v>8.940764190362438</v>
       </c>
       <c r="I6" t="n">
-        <v>29.62197598125348</v>
+        <v>31.87329650061087</v>
       </c>
       <c r="J6" t="n">
-        <v>81.28496619263454</v>
+        <v>87.46276177320495</v>
       </c>
       <c r="K6" t="n">
-        <v>138.9289541021413</v>
+        <v>149.4877907341389</v>
       </c>
       <c r="L6" t="n">
-        <v>186.8071236881469</v>
+        <v>201.0047825812409</v>
       </c>
       <c r="M6" t="n">
-        <v>194.1392459423527</v>
+        <v>211.9978241782972</v>
       </c>
       <c r="N6" t="n">
-        <v>183.3469241036677</v>
+        <v>204.8061138200607</v>
       </c>
       <c r="O6" t="n">
-        <v>164.848947733429</v>
+        <v>216.0606461811718</v>
       </c>
       <c r="P6" t="n">
-        <v>164.2906484422693</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>109.8239476380129</v>
+        <v>118.1707543125833</v>
       </c>
       <c r="R6" t="n">
-        <v>53.41766776950628</v>
+        <v>57.47750130734365</v>
       </c>
       <c r="S6" t="n">
-        <v>15.98077302937686</v>
+        <v>17.19533894013846</v>
       </c>
       <c r="T6" t="n">
-        <v>3.467846614875405</v>
+        <v>3.731408851472787</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05660250187500666</v>
+        <v>0.0609043882177278</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7212952697951663</v>
+        <v>0.7761149361953068</v>
       </c>
       <c r="H7" t="n">
-        <v>6.412970671451575</v>
+        <v>6.900367341809188</v>
       </c>
       <c r="I7" t="n">
-        <v>21.69131593165828</v>
+        <v>23.3398928084916</v>
       </c>
       <c r="J7" t="n">
-        <v>50.99557557451826</v>
+        <v>54.87132598900818</v>
       </c>
       <c r="K7" t="n">
-        <v>83.8013958907475</v>
+        <v>90.17044440523654</v>
       </c>
       <c r="L7" t="n">
-        <v>107.236934929365</v>
+        <v>115.387124241255</v>
       </c>
       <c r="M7" t="n">
-        <v>113.066312155255</v>
+        <v>121.6595440437789</v>
       </c>
       <c r="N7" t="n">
-        <v>110.3778479678368</v>
+        <v>118.7667520088692</v>
       </c>
       <c r="O7" t="n">
-        <v>101.9518077706841</v>
+        <v>109.7003184360421</v>
       </c>
       <c r="P7" t="n">
-        <v>87.23738426686263</v>
+        <v>93.86757373765779</v>
       </c>
       <c r="Q7" t="n">
-        <v>60.39864300075707</v>
+        <v>64.98904252086338</v>
       </c>
       <c r="R7" t="n">
-        <v>32.43205822188084</v>
+        <v>34.89694976747261</v>
       </c>
       <c r="S7" t="n">
-        <v>12.57020938361212</v>
+        <v>13.52556666078548</v>
       </c>
       <c r="T7" t="n">
-        <v>3.081897970942983</v>
+        <v>3.316127454652674</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03934337835246366</v>
+        <v>0.04233354197428951</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.517105896408945</v>
+        <v>2.472296509803423</v>
       </c>
       <c r="H11" t="n">
-        <v>25.77831076159811</v>
+        <v>25.31940663102431</v>
       </c>
       <c r="I11" t="n">
-        <v>97.04072507130594</v>
+        <v>95.31321119419654</v>
       </c>
       <c r="J11" t="n">
-        <v>213.6362165753389</v>
+        <v>209.8330758989285</v>
       </c>
       <c r="K11" t="n">
-        <v>320.1853091703296</v>
+        <v>314.4853871589074</v>
       </c>
       <c r="L11" t="n">
-        <v>397.2181887475549</v>
+        <v>390.146931470804</v>
       </c>
       <c r="M11" t="n">
-        <v>441.9817707328175</v>
+        <v>434.1136345270206</v>
       </c>
       <c r="N11" t="n">
-        <v>449.1334978609895</v>
+        <v>441.1380469854996</v>
       </c>
       <c r="O11" t="n">
-        <v>424.1040261035729</v>
+        <v>416.5541485661417</v>
       </c>
       <c r="P11" t="n">
-        <v>361.9629742859771</v>
+        <v>355.5193284803697</v>
       </c>
       <c r="Q11" t="n">
-        <v>271.8191193708316</v>
+        <v>266.9802097230345</v>
       </c>
       <c r="R11" t="n">
-        <v>158.1151532652985</v>
+        <v>155.3003956339394</v>
       </c>
       <c r="S11" t="n">
-        <v>57.35855061441889</v>
+        <v>56.33745671714555</v>
       </c>
       <c r="T11" t="n">
-        <v>11.01863106153016</v>
+        <v>10.82247797166449</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2013684717127155</v>
+        <v>0.1977837207842738</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.346770385988995</v>
+        <v>1.322795250504729</v>
       </c>
       <c r="H12" t="n">
-        <v>13.00696662257792</v>
+        <v>12.77541728776935</v>
       </c>
       <c r="I12" t="n">
-        <v>46.36906811409477</v>
+        <v>45.54360840553561</v>
       </c>
       <c r="J12" t="n">
-        <v>127.2402670376708</v>
+        <v>124.9751425049226</v>
       </c>
       <c r="K12" t="n">
-        <v>217.4738828989334</v>
+        <v>213.6024242887395</v>
       </c>
       <c r="L12" t="n">
-        <v>292.4204735016894</v>
+        <v>287.2148196326166</v>
       </c>
       <c r="M12" t="n">
-        <v>341.2408999937904</v>
+        <v>335.166147463413</v>
       </c>
       <c r="N12" t="n">
-        <v>350.2725312226377</v>
+        <v>344.0369980687715</v>
       </c>
       <c r="O12" t="n">
-        <v>320.4309347751973</v>
+        <v>314.726640149693</v>
       </c>
       <c r="P12" t="n">
-        <v>257.1740748473195</v>
+        <v>252.5958755108547</v>
       </c>
       <c r="Q12" t="n">
-        <v>171.9140583939636</v>
+        <v>168.8536533802177</v>
       </c>
       <c r="R12" t="n">
-        <v>83.61790168447463</v>
+        <v>82.12934020239011</v>
       </c>
       <c r="S12" t="n">
-        <v>25.01566923097977</v>
+        <v>24.57034160476983</v>
       </c>
       <c r="T12" t="n">
-        <v>5.428429757560902</v>
+        <v>5.33179313690283</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08860331486769706</v>
+        <v>0.08702600332267955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.129087050663767</v>
+        <v>1.108987102450757</v>
       </c>
       <c r="H13" t="n">
-        <v>10.03861032317423</v>
+        <v>9.859903510880377</v>
       </c>
       <c r="I13" t="n">
-        <v>33.95472694177948</v>
+        <v>33.3502666809737</v>
       </c>
       <c r="J13" t="n">
-        <v>79.82645448192834</v>
+        <v>78.40538814326854</v>
       </c>
       <c r="K13" t="n">
-        <v>131.1793864316631</v>
+        <v>128.8441379029152</v>
       </c>
       <c r="L13" t="n">
-        <v>167.8644511505023</v>
+        <v>164.8761370316335</v>
       </c>
       <c r="M13" t="n">
-        <v>176.9895274054122</v>
+        <v>173.8387691596219</v>
       </c>
       <c r="N13" t="n">
-        <v>172.7811120347564</v>
+        <v>169.7052717777601</v>
       </c>
       <c r="O13" t="n">
-        <v>159.5913223974569</v>
+        <v>156.7502860809489</v>
       </c>
       <c r="P13" t="n">
-        <v>136.5579465639159</v>
+        <v>134.1269491909534</v>
       </c>
       <c r="Q13" t="n">
-        <v>94.54564385149055</v>
+        <v>92.86254727885388</v>
       </c>
       <c r="R13" t="n">
-        <v>50.76785956893629</v>
+        <v>49.86409280655859</v>
       </c>
       <c r="S13" t="n">
-        <v>19.67690796474946</v>
+        <v>19.32662068543728</v>
       </c>
       <c r="T13" t="n">
-        <v>4.824281034654277</v>
+        <v>4.738399437744143</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06158656639984192</v>
+        <v>0.0604902055882232</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.517105896408945</v>
+        <v>2.472296509803423</v>
       </c>
       <c r="H14" t="n">
-        <v>25.77831076159811</v>
+        <v>25.31940663102431</v>
       </c>
       <c r="I14" t="n">
-        <v>97.04072507130594</v>
+        <v>95.31321119419654</v>
       </c>
       <c r="J14" t="n">
-        <v>213.6362165753389</v>
+        <v>209.8330758989285</v>
       </c>
       <c r="K14" t="n">
-        <v>320.1853091703296</v>
+        <v>314.4853871589074</v>
       </c>
       <c r="L14" t="n">
-        <v>397.2181887475549</v>
+        <v>390.146931470804</v>
       </c>
       <c r="M14" t="n">
-        <v>441.9817707328175</v>
+        <v>434.1136345270206</v>
       </c>
       <c r="N14" t="n">
-        <v>449.1334978609895</v>
+        <v>441.1380469854996</v>
       </c>
       <c r="O14" t="n">
-        <v>424.1040261035729</v>
+        <v>416.5541485661417</v>
       </c>
       <c r="P14" t="n">
-        <v>361.9629742859771</v>
+        <v>355.5193284803697</v>
       </c>
       <c r="Q14" t="n">
-        <v>271.8191193708316</v>
+        <v>266.9802097230345</v>
       </c>
       <c r="R14" t="n">
-        <v>158.1151532652985</v>
+        <v>155.3003956339394</v>
       </c>
       <c r="S14" t="n">
-        <v>57.35855061441889</v>
+        <v>56.33745671714555</v>
       </c>
       <c r="T14" t="n">
-        <v>11.01863106153016</v>
+        <v>10.82247797166449</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2013684717127155</v>
+        <v>0.1977837207842738</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.346770385988995</v>
+        <v>1.322795250504729</v>
       </c>
       <c r="H15" t="n">
-        <v>13.00696662257792</v>
+        <v>12.77541728776935</v>
       </c>
       <c r="I15" t="n">
-        <v>46.36906811409477</v>
+        <v>45.54360840553561</v>
       </c>
       <c r="J15" t="n">
-        <v>127.2402670376708</v>
+        <v>124.9751425049226</v>
       </c>
       <c r="K15" t="n">
-        <v>217.4738828989334</v>
+        <v>213.6024242887395</v>
       </c>
       <c r="L15" t="n">
-        <v>292.4204735016894</v>
+        <v>287.2148196326166</v>
       </c>
       <c r="M15" t="n">
-        <v>341.2408999937904</v>
+        <v>335.166147463413</v>
       </c>
       <c r="N15" t="n">
-        <v>350.2725312226377</v>
+        <v>344.0369980687715</v>
       </c>
       <c r="O15" t="n">
-        <v>320.4309347751973</v>
+        <v>314.726640149693</v>
       </c>
       <c r="P15" t="n">
-        <v>257.1740748473195</v>
+        <v>252.5958755108547</v>
       </c>
       <c r="Q15" t="n">
-        <v>171.9140583939636</v>
+        <v>168.8536533802177</v>
       </c>
       <c r="R15" t="n">
-        <v>83.61790168447463</v>
+        <v>82.12934020239011</v>
       </c>
       <c r="S15" t="n">
-        <v>25.01566923097977</v>
+        <v>24.57034160476983</v>
       </c>
       <c r="T15" t="n">
-        <v>5.428429757560902</v>
+        <v>5.33179313690283</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08860331486769706</v>
+        <v>0.08702600332267955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.129087050663767</v>
+        <v>1.108987102450757</v>
       </c>
       <c r="H16" t="n">
-        <v>10.03861032317423</v>
+        <v>9.859903510880377</v>
       </c>
       <c r="I16" t="n">
-        <v>33.95472694177948</v>
+        <v>33.3502666809737</v>
       </c>
       <c r="J16" t="n">
-        <v>79.82645448192834</v>
+        <v>78.40538814326854</v>
       </c>
       <c r="K16" t="n">
-        <v>131.1793864316631</v>
+        <v>128.8441379029152</v>
       </c>
       <c r="L16" t="n">
-        <v>167.8644511505023</v>
+        <v>164.8761370316335</v>
       </c>
       <c r="M16" t="n">
-        <v>176.9895274054122</v>
+        <v>173.8387691596219</v>
       </c>
       <c r="N16" t="n">
-        <v>172.7811120347564</v>
+        <v>169.7052717777601</v>
       </c>
       <c r="O16" t="n">
-        <v>159.5913223974569</v>
+        <v>156.7502860809489</v>
       </c>
       <c r="P16" t="n">
-        <v>136.5579465639159</v>
+        <v>134.1269491909534</v>
       </c>
       <c r="Q16" t="n">
-        <v>94.54564385149055</v>
+        <v>92.86254727885388</v>
       </c>
       <c r="R16" t="n">
-        <v>50.76785956893629</v>
+        <v>49.86409280655859</v>
       </c>
       <c r="S16" t="n">
-        <v>19.67690796474946</v>
+        <v>19.32662068543728</v>
       </c>
       <c r="T16" t="n">
-        <v>4.824281034654277</v>
+        <v>4.738399437744143</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06158656639984192</v>
+        <v>0.0604902055882232</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.517105896408945</v>
+        <v>2.472296509803423</v>
       </c>
       <c r="H17" t="n">
-        <v>25.77831076159811</v>
+        <v>25.31940663102431</v>
       </c>
       <c r="I17" t="n">
-        <v>97.04072507130594</v>
+        <v>95.31321119419654</v>
       </c>
       <c r="J17" t="n">
-        <v>213.6362165753389</v>
+        <v>209.8330758989285</v>
       </c>
       <c r="K17" t="n">
-        <v>320.1853091703296</v>
+        <v>314.4853871589074</v>
       </c>
       <c r="L17" t="n">
-        <v>397.2181887475549</v>
+        <v>390.146931470804</v>
       </c>
       <c r="M17" t="n">
-        <v>441.9817707328175</v>
+        <v>434.1136345270206</v>
       </c>
       <c r="N17" t="n">
-        <v>449.1334978609895</v>
+        <v>441.1380469854996</v>
       </c>
       <c r="O17" t="n">
-        <v>424.1040261035729</v>
+        <v>416.5541485661417</v>
       </c>
       <c r="P17" t="n">
-        <v>361.9629742859771</v>
+        <v>355.5193284803697</v>
       </c>
       <c r="Q17" t="n">
-        <v>271.8191193708316</v>
+        <v>266.9802097230345</v>
       </c>
       <c r="R17" t="n">
-        <v>158.1151532652985</v>
+        <v>155.3003956339394</v>
       </c>
       <c r="S17" t="n">
-        <v>57.35855061441889</v>
+        <v>56.33745671714555</v>
       </c>
       <c r="T17" t="n">
-        <v>11.01863106153016</v>
+        <v>10.82247797166449</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2013684717127155</v>
+        <v>0.1977837207842738</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.346770385988995</v>
+        <v>1.322795250504729</v>
       </c>
       <c r="H18" t="n">
-        <v>13.00696662257792</v>
+        <v>12.77541728776935</v>
       </c>
       <c r="I18" t="n">
-        <v>46.36906811409477</v>
+        <v>45.54360840553561</v>
       </c>
       <c r="J18" t="n">
-        <v>127.2402670376708</v>
+        <v>124.9751425049226</v>
       </c>
       <c r="K18" t="n">
-        <v>217.4738828989334</v>
+        <v>213.6024242887395</v>
       </c>
       <c r="L18" t="n">
-        <v>292.4204735016894</v>
+        <v>287.2148196326166</v>
       </c>
       <c r="M18" t="n">
-        <v>341.2408999937904</v>
+        <v>335.166147463413</v>
       </c>
       <c r="N18" t="n">
-        <v>350.2725312226377</v>
+        <v>344.0369980687715</v>
       </c>
       <c r="O18" t="n">
-        <v>320.4309347751973</v>
+        <v>314.726640149693</v>
       </c>
       <c r="P18" t="n">
-        <v>257.1740748473195</v>
+        <v>252.5958755108547</v>
       </c>
       <c r="Q18" t="n">
-        <v>171.9140583939636</v>
+        <v>168.8536533802177</v>
       </c>
       <c r="R18" t="n">
-        <v>83.61790168447463</v>
+        <v>82.12934020239011</v>
       </c>
       <c r="S18" t="n">
-        <v>25.01566923097977</v>
+        <v>24.57034160476983</v>
       </c>
       <c r="T18" t="n">
-        <v>5.428429757560902</v>
+        <v>5.33179313690283</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08860331486769706</v>
+        <v>0.08702600332267955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.129087050663767</v>
+        <v>1.108987102450757</v>
       </c>
       <c r="H19" t="n">
-        <v>10.03861032317423</v>
+        <v>9.859903510880377</v>
       </c>
       <c r="I19" t="n">
-        <v>33.95472694177948</v>
+        <v>33.3502666809737</v>
       </c>
       <c r="J19" t="n">
-        <v>79.82645448192834</v>
+        <v>78.40538814326854</v>
       </c>
       <c r="K19" t="n">
-        <v>131.1793864316631</v>
+        <v>128.8441379029152</v>
       </c>
       <c r="L19" t="n">
-        <v>167.8644511505023</v>
+        <v>164.8761370316335</v>
       </c>
       <c r="M19" t="n">
-        <v>176.9895274054122</v>
+        <v>173.8387691596219</v>
       </c>
       <c r="N19" t="n">
-        <v>172.7811120347564</v>
+        <v>169.7052717777601</v>
       </c>
       <c r="O19" t="n">
-        <v>159.5913223974569</v>
+        <v>156.7502860809489</v>
       </c>
       <c r="P19" t="n">
-        <v>136.5579465639159</v>
+        <v>134.1269491909534</v>
       </c>
       <c r="Q19" t="n">
-        <v>94.54564385149055</v>
+        <v>92.86254727885388</v>
       </c>
       <c r="R19" t="n">
-        <v>50.76785956893629</v>
+        <v>49.86409280655859</v>
       </c>
       <c r="S19" t="n">
-        <v>19.67690796474946</v>
+        <v>19.32662068543728</v>
       </c>
       <c r="T19" t="n">
-        <v>4.824281034654277</v>
+        <v>4.738399437744143</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06158656639984192</v>
+        <v>0.0604902055882232</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.517105896408946</v>
+        <v>2.472296509803423</v>
       </c>
       <c r="H20" t="n">
-        <v>25.77831076159812</v>
+        <v>25.31940663102431</v>
       </c>
       <c r="I20" t="n">
-        <v>97.04072507130596</v>
+        <v>95.31321119419654</v>
       </c>
       <c r="J20" t="n">
-        <v>213.6362165753389</v>
+        <v>209.8330758989285</v>
       </c>
       <c r="K20" t="n">
-        <v>320.1853091703297</v>
+        <v>314.4853871589074</v>
       </c>
       <c r="L20" t="n">
-        <v>397.218188747555</v>
+        <v>390.146931470804</v>
       </c>
       <c r="M20" t="n">
-        <v>441.9817707328176</v>
+        <v>434.1136345270206</v>
       </c>
       <c r="N20" t="n">
-        <v>449.1334978609895</v>
+        <v>441.1380469854996</v>
       </c>
       <c r="O20" t="n">
-        <v>424.1040261035731</v>
+        <v>416.5541485661417</v>
       </c>
       <c r="P20" t="n">
-        <v>361.9629742859772</v>
+        <v>355.5193284803697</v>
       </c>
       <c r="Q20" t="n">
-        <v>271.8191193708317</v>
+        <v>266.9802097230345</v>
       </c>
       <c r="R20" t="n">
-        <v>158.1151532652986</v>
+        <v>155.3003956339394</v>
       </c>
       <c r="S20" t="n">
-        <v>57.3585506144189</v>
+        <v>56.33745671714555</v>
       </c>
       <c r="T20" t="n">
-        <v>11.01863106153017</v>
+        <v>10.82247797166449</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2013684717127156</v>
+        <v>0.1977837207842738</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.346770385988995</v>
+        <v>1.322795250504729</v>
       </c>
       <c r="H21" t="n">
-        <v>13.00696662257793</v>
+        <v>12.77541728776935</v>
       </c>
       <c r="I21" t="n">
-        <v>46.36906811409479</v>
+        <v>45.54360840553561</v>
       </c>
       <c r="J21" t="n">
-        <v>127.2402670376708</v>
+        <v>124.9751425049226</v>
       </c>
       <c r="K21" t="n">
-        <v>217.4738828989335</v>
+        <v>213.6024242887395</v>
       </c>
       <c r="L21" t="n">
-        <v>292.4204735016895</v>
+        <v>287.2148196326166</v>
       </c>
       <c r="M21" t="n">
-        <v>341.2408999937904</v>
+        <v>335.166147463413</v>
       </c>
       <c r="N21" t="n">
-        <v>350.2725312226378</v>
+        <v>344.0369980687715</v>
       </c>
       <c r="O21" t="n">
-        <v>320.4309347751974</v>
+        <v>314.726640149693</v>
       </c>
       <c r="P21" t="n">
-        <v>257.1740748473196</v>
+        <v>252.5958755108547</v>
       </c>
       <c r="Q21" t="n">
-        <v>171.9140583939636</v>
+        <v>168.8536533802177</v>
       </c>
       <c r="R21" t="n">
-        <v>83.61790168447465</v>
+        <v>82.12934020239011</v>
       </c>
       <c r="S21" t="n">
-        <v>25.01566923097978</v>
+        <v>24.57034160476983</v>
       </c>
       <c r="T21" t="n">
-        <v>5.428429757560902</v>
+        <v>5.33179313690283</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08860331486769707</v>
+        <v>0.08702600332267955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.129087050663767</v>
+        <v>1.108987102450757</v>
       </c>
       <c r="H22" t="n">
-        <v>10.03861032317423</v>
+        <v>9.859903510880377</v>
       </c>
       <c r="I22" t="n">
-        <v>33.95472694177949</v>
+        <v>33.3502666809737</v>
       </c>
       <c r="J22" t="n">
-        <v>79.82645448192835</v>
+        <v>78.40538814326854</v>
       </c>
       <c r="K22" t="n">
-        <v>131.1793864316631</v>
+        <v>128.8441379029152</v>
       </c>
       <c r="L22" t="n">
-        <v>167.8644511505023</v>
+        <v>164.8761370316335</v>
       </c>
       <c r="M22" t="n">
-        <v>176.9895274054122</v>
+        <v>173.8387691596219</v>
       </c>
       <c r="N22" t="n">
-        <v>172.7811120347565</v>
+        <v>169.7052717777601</v>
       </c>
       <c r="O22" t="n">
-        <v>159.5913223974569</v>
+        <v>156.7502860809489</v>
       </c>
       <c r="P22" t="n">
-        <v>136.557946563916</v>
+        <v>134.1269491909534</v>
       </c>
       <c r="Q22" t="n">
-        <v>94.54564385149057</v>
+        <v>92.86254727885388</v>
       </c>
       <c r="R22" t="n">
-        <v>50.7678595689363</v>
+        <v>49.86409280655859</v>
       </c>
       <c r="S22" t="n">
-        <v>19.67690796474947</v>
+        <v>19.32662068543728</v>
       </c>
       <c r="T22" t="n">
-        <v>4.824281034654278</v>
+        <v>4.738399437744143</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06158656639984193</v>
+        <v>0.0604902055882232</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34131,7 +34131,7 @@
         <v>132.3122829933229</v>
       </c>
       <c r="J41" t="n">
-        <v>291.2869367409261</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K41" t="n">
         <v>436.5636098258711</v>
@@ -34392,7 +34392,7 @@
         <v>370.6176784928395</v>
       </c>
       <c r="R44" t="n">
-        <v>215.5855378141319</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S44" t="n">
         <v>78.20676087699491</v>
@@ -34786,7 +34786,7 @@
         <v>46.79044561126693</v>
       </c>
       <c r="M3" t="n">
-        <v>49.79500702712463</v>
+        <v>21.75745062690899</v>
       </c>
       <c r="N3" t="n">
         <v>49.79500702712463</v>
@@ -34795,7 +34795,7 @@
         <v>49.79500702712463</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9926419400142784</v>
+        <v>29.03019834022993</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34941,19 +34941,19 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>17.98868783787918</v>
+        <v>37.27450692721135</v>
       </c>
       <c r="M5" t="n">
-        <v>52.00521202033443</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="N5" t="n">
-        <v>52.00521202033443</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="O5" t="n">
-        <v>40.83238489483122</v>
+        <v>61.42357068186735</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>17.57410067531529</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1.087515127782297</v>
+        <v>11.64635175977992</v>
       </c>
       <c r="L6" t="n">
-        <v>48.25274390827272</v>
+        <v>62.45040280136672</v>
       </c>
       <c r="M6" t="n">
-        <v>52.00521202033443</v>
+        <v>69.86379025627882</v>
       </c>
       <c r="N6" t="n">
-        <v>52.00521202033443</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="O6" t="n">
-        <v>22.25270328898455</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="P6" t="n">
-        <v>30.31624102793901</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>32.59031204865261</v>
+        <v>28.78717137224217</v>
       </c>
       <c r="K11" t="n">
-        <v>100.0954581253491</v>
+        <v>94.39553611392682</v>
       </c>
       <c r="L11" t="n">
-        <v>161.4517737775677</v>
+        <v>154.3805165008167</v>
       </c>
       <c r="M11" t="n">
-        <v>211.6355375055448</v>
+        <v>203.7674012997478</v>
       </c>
       <c r="N11" t="n">
-        <v>219.7204342643985</v>
+        <v>211.7249833889086</v>
       </c>
       <c r="O11" t="n">
-        <v>194.0058146818862</v>
+        <v>186.455937144455</v>
       </c>
       <c r="P11" t="n">
-        <v>130.7299785307075</v>
+        <v>124.2863327251002</v>
       </c>
       <c r="Q11" t="n">
-        <v>49.51342949638214</v>
+        <v>44.67451984858505</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4026403710040825</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>79.6324439245744</v>
+        <v>75.76098531438046</v>
       </c>
       <c r="L12" t="n">
-        <v>153.8660937218152</v>
+        <v>148.6604398527425</v>
       </c>
       <c r="M12" t="n">
-        <v>199.1068660717721</v>
+        <v>193.0321135413947</v>
       </c>
       <c r="N12" t="n">
-        <v>218.9308191393044</v>
+        <v>212.6952859854382</v>
       </c>
       <c r="O12" t="n">
-        <v>177.8346903307529</v>
+        <v>172.1303957052486</v>
       </c>
       <c r="P12" t="n">
-        <v>123.1996674329893</v>
+        <v>118.6214680965245</v>
       </c>
       <c r="Q12" t="n">
-        <v>31.9322843079421</v>
+        <v>28.87187929419613</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,19 +35570,19 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>2.166128261127739</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>32.97977486926402</v>
+        <v>29.99146075039525</v>
       </c>
       <c r="M13" t="n">
-        <v>38.06374345780711</v>
+        <v>34.91298521201682</v>
       </c>
       <c r="N13" t="n">
-        <v>45.09556756952324</v>
+        <v>42.01972731252692</v>
       </c>
       <c r="O13" t="n">
-        <v>21.13478394561412</v>
+        <v>18.29374762910615</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>32.59031204865261</v>
+        <v>28.78717137224217</v>
       </c>
       <c r="K14" t="n">
-        <v>100.0954581253491</v>
+        <v>94.39553611392682</v>
       </c>
       <c r="L14" t="n">
-        <v>161.4517737775677</v>
+        <v>154.3805165008167</v>
       </c>
       <c r="M14" t="n">
-        <v>211.6355375055448</v>
+        <v>203.7674012997478</v>
       </c>
       <c r="N14" t="n">
-        <v>219.7204342643985</v>
+        <v>211.7249833889086</v>
       </c>
       <c r="O14" t="n">
-        <v>194.0058146818862</v>
+        <v>186.455937144455</v>
       </c>
       <c r="P14" t="n">
-        <v>130.7299785307075</v>
+        <v>124.2863327251002</v>
       </c>
       <c r="Q14" t="n">
-        <v>49.51342949638214</v>
+        <v>44.67451984858505</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4026403710040825</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>79.6324439245744</v>
+        <v>75.76098531438046</v>
       </c>
       <c r="L15" t="n">
-        <v>153.8660937218152</v>
+        <v>148.6604398527425</v>
       </c>
       <c r="M15" t="n">
-        <v>199.1068660717721</v>
+        <v>193.0321135413947</v>
       </c>
       <c r="N15" t="n">
-        <v>218.9308191393044</v>
+        <v>212.6952859854382</v>
       </c>
       <c r="O15" t="n">
-        <v>177.8346903307529</v>
+        <v>172.1303957052486</v>
       </c>
       <c r="P15" t="n">
-        <v>123.1996674329893</v>
+        <v>118.6214680965245</v>
       </c>
       <c r="Q15" t="n">
-        <v>31.9322843079421</v>
+        <v>28.87187929419613</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,19 +35807,19 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>2.166128261127739</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>32.97977486926402</v>
+        <v>29.99146075039525</v>
       </c>
       <c r="M16" t="n">
-        <v>38.06374345780711</v>
+        <v>34.91298521201682</v>
       </c>
       <c r="N16" t="n">
-        <v>45.09556756952324</v>
+        <v>42.01972731252692</v>
       </c>
       <c r="O16" t="n">
-        <v>21.13478394561412</v>
+        <v>18.29374762910615</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>32.59031204865261</v>
+        <v>28.78717137224217</v>
       </c>
       <c r="K17" t="n">
-        <v>100.0954581253491</v>
+        <v>94.39553611392682</v>
       </c>
       <c r="L17" t="n">
-        <v>161.4517737775677</v>
+        <v>154.3805165008167</v>
       </c>
       <c r="M17" t="n">
-        <v>211.6355375055448</v>
+        <v>203.7674012997478</v>
       </c>
       <c r="N17" t="n">
-        <v>219.7204342643985</v>
+        <v>211.7249833889086</v>
       </c>
       <c r="O17" t="n">
-        <v>194.0058146818862</v>
+        <v>186.455937144455</v>
       </c>
       <c r="P17" t="n">
-        <v>130.7299785307075</v>
+        <v>124.2863327251002</v>
       </c>
       <c r="Q17" t="n">
-        <v>49.51342949638214</v>
+        <v>44.67451984858505</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.4026403710040825</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>79.6324439245744</v>
+        <v>75.76098531438046</v>
       </c>
       <c r="L18" t="n">
-        <v>153.8660937218152</v>
+        <v>148.6604398527425</v>
       </c>
       <c r="M18" t="n">
-        <v>199.1068660717721</v>
+        <v>193.0321135413947</v>
       </c>
       <c r="N18" t="n">
-        <v>218.9308191393044</v>
+        <v>212.6952859854382</v>
       </c>
       <c r="O18" t="n">
-        <v>177.8346903307529</v>
+        <v>172.1303957052486</v>
       </c>
       <c r="P18" t="n">
-        <v>123.1996674329893</v>
+        <v>118.6214680965245</v>
       </c>
       <c r="Q18" t="n">
-        <v>31.9322843079421</v>
+        <v>28.87187929419613</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,19 +36044,19 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>2.166128261127739</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>32.97977486926402</v>
+        <v>29.99146075039525</v>
       </c>
       <c r="M19" t="n">
-        <v>38.06374345780711</v>
+        <v>34.91298521201682</v>
       </c>
       <c r="N19" t="n">
-        <v>45.09556756952324</v>
+        <v>42.01972731252692</v>
       </c>
       <c r="O19" t="n">
-        <v>21.13478394561412</v>
+        <v>18.29374762910615</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>32.59031204865263</v>
+        <v>28.78717137224217</v>
       </c>
       <c r="K20" t="n">
-        <v>100.0954581253491</v>
+        <v>94.39553611392682</v>
       </c>
       <c r="L20" t="n">
-        <v>161.4517737775678</v>
+        <v>154.3805165008167</v>
       </c>
       <c r="M20" t="n">
-        <v>211.6355375055448</v>
+        <v>203.7674012997478</v>
       </c>
       <c r="N20" t="n">
-        <v>219.7204342643986</v>
+        <v>211.7249833889086</v>
       </c>
       <c r="O20" t="n">
-        <v>194.0058146818863</v>
+        <v>186.455937144455</v>
       </c>
       <c r="P20" t="n">
-        <v>130.7299785307076</v>
+        <v>124.2863327251002</v>
       </c>
       <c r="Q20" t="n">
-        <v>49.5134294963822</v>
+        <v>44.67451984858505</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.4026403710041109</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>79.63244392457446</v>
+        <v>75.76098531438046</v>
       </c>
       <c r="L21" t="n">
-        <v>153.8660937218153</v>
+        <v>148.6604398527425</v>
       </c>
       <c r="M21" t="n">
-        <v>199.1068660717721</v>
+        <v>193.0321135413947</v>
       </c>
       <c r="N21" t="n">
-        <v>218.9308191393045</v>
+        <v>212.6952859854382</v>
       </c>
       <c r="O21" t="n">
-        <v>177.8346903307529</v>
+        <v>172.1303957052486</v>
       </c>
       <c r="P21" t="n">
-        <v>123.1996674329893</v>
+        <v>118.6214680965245</v>
       </c>
       <c r="Q21" t="n">
-        <v>31.93228430794213</v>
+        <v>28.87187929419613</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,19 +36281,19 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>2.166128261127767</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>32.97977486926405</v>
+        <v>29.99146075039525</v>
       </c>
       <c r="M22" t="n">
-        <v>38.06374345780713</v>
+        <v>34.91298521201682</v>
       </c>
       <c r="N22" t="n">
-        <v>45.09556756952327</v>
+        <v>42.01972731252692</v>
       </c>
       <c r="O22" t="n">
-        <v>21.13478394561415</v>
+        <v>18.29374762910615</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>110.2410322142398</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K41" t="n">
         <v>216.4737587808906</v>
